--- a/Cronograma-2026-01-01-2026-01-15.xlsx
+++ b/Cronograma-2026-01-01-2026-01-15.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="71">
   <si>
     <t>Puestos</t>
   </si>
@@ -323,7 +323,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -646,9 +653,12 @@
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -733,16 +743,16 @@
         <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s">
         <v>60</v>
@@ -751,7 +761,7 @@
         <v>60</v>
       </c>
       <c r="P2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Q2" t="s">
         <v>60</v>
@@ -783,31 +793,31 @@
         <v>66</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
         <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="L3" t="s">
         <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -842,22 +852,22 @@
         <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O4" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="Q4" t="s">
         <v>33</v>
@@ -889,31 +899,31 @@
         <v>53</v>
       </c>
       <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" t="s">
         <v>32</v>
       </c>
-      <c r="J5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P5" t="s">
-        <v>54</v>
-      </c>
       <c r="Q5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -941,32 +951,29 @@
       <c r="H6" t="s">
         <v>52</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>42</v>
       </c>
-      <c r="J6" t="s">
-        <v>50</v>
-      </c>
       <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" t="s">
         <v>36</v>
       </c>
-      <c r="L6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" t="s">
-        <v>62</v>
-      </c>
-      <c r="O6" t="s">
-        <v>56</v>
-      </c>
       <c r="P6" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q6" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -994,32 +1001,23 @@
       <c r="H7" t="s">
         <v>32</v>
       </c>
-      <c r="I7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" t="s">
-        <v>35</v>
-      </c>
       <c r="K7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" t="s">
         <v>50</v>
       </c>
-      <c r="L7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>37</v>
       </c>
-      <c r="N7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" t="s">
-        <v>56</v>
-      </c>
       <c r="Q7" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1047,32 +1045,20 @@
       <c r="H8" t="s">
         <v>54</v>
       </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" t="s">
-        <v>37</v>
-      </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="N8" t="s">
         <v>66</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P8" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1160,13 +1146,13 @@
         <v>39</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="L10" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="N10" t="s">
         <v>39</v>
@@ -1175,7 +1161,7 @@
         <v>39</v>
       </c>
       <c r="P10" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="Q10" t="s">
         <v>39</v>
@@ -1206,11 +1192,8 @@
       <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="I11" t="s">
-        <v>57</v>
-      </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K11" t="s">
         <v>41</v>
@@ -1219,19 +1202,16 @@
         <v>41</v>
       </c>
       <c r="M11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="O11" t="s">
         <v>57</v>
       </c>
-      <c r="P11" t="s">
-        <v>40</v>
-      </c>
       <c r="Q11" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1256,35 +1236,26 @@
       <c r="G12" t="s">
         <v>40</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" t="s">
         <v>40</v>
       </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>46</v>
       </c>
-      <c r="J12" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" t="s">
-        <v>57</v>
-      </c>
       <c r="M12" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="N12" t="s">
-        <v>40</v>
-      </c>
       <c r="O12" t="s">
-        <v>40</v>
-      </c>
-      <c r="P12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" t="s">
         <v>46</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1312,11 +1283,8 @@
       <c r="H13" t="s">
         <v>59</v>
       </c>
-      <c r="I13" t="s">
-        <v>59</v>
-      </c>
       <c r="J13" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K13" t="s">
         <v>59</v>
@@ -1325,19 +1293,16 @@
         <v>59</v>
       </c>
       <c r="M13" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="N13" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="O13" t="s">
-        <v>31</v>
-      </c>
-      <c r="P13" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="Q13" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1365,31 +1330,19 @@
       <c r="H14" t="s">
         <v>65</v>
       </c>
-      <c r="I14" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" t="s">
-        <v>65</v>
-      </c>
       <c r="K14" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="L14" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="M14" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="N14" t="s">
         <v>43</v>
       </c>
       <c r="O14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q14" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1425,13 +1378,13 @@
         <v>44</v>
       </c>
       <c r="K15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L15" t="s">
         <v>44</v>
       </c>
       <c r="M15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N15" t="s">
         <v>44</v>
@@ -1443,7 +1396,7 @@
         <v>44</v>
       </c>
       <c r="Q15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1471,32 +1424,20 @@
       <c r="H16" t="s">
         <v>58</v>
       </c>
-      <c r="I16" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" t="s">
-        <v>58</v>
-      </c>
       <c r="K16" t="s">
         <v>58</v>
       </c>
       <c r="L16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="O16" t="s">
-        <v>45</v>
-      </c>
-      <c r="P16" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1521,15 +1462,6 @@
       <c r="G17" t="s">
         <v>34</v>
       </c>
-      <c r="H17" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" t="s">
-        <v>46</v>
-      </c>
       <c r="K17" t="s">
         <v>34</v>
       </c>
@@ -1540,15 +1472,9 @@
         <v>34</v>
       </c>
       <c r="N17" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="O17" t="s">
-        <v>46</v>
-      </c>
-      <c r="P17" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q17" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1574,17 +1500,8 @@
       <c r="G18" t="s">
         <v>47</v>
       </c>
-      <c r="H18" t="s">
+      <c r="K18" t="s">
         <v>47</v>
-      </c>
-      <c r="I18" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18" t="s">
-        <v>46</v>
       </c>
       <c r="L18" t="s">
         <v>47</v>
@@ -1596,12 +1513,6 @@
         <v>47</v>
       </c>
       <c r="O18" t="s">
-        <v>47</v>
-      </c>
-      <c r="P18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q18" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1627,12 +1538,6 @@
       <c r="G19" t="s">
         <v>48</v>
       </c>
-      <c r="H19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" t="s">
-        <v>48</v>
-      </c>
       <c r="J19" t="s">
         <v>48</v>
       </c>
@@ -1646,12 +1551,6 @@
         <v>48</v>
       </c>
       <c r="N19" t="s">
-        <v>48</v>
-      </c>
-      <c r="O19" t="s">
-        <v>48</v>
-      </c>
-      <c r="P19" t="s">
         <v>48</v>
       </c>
       <c r="Q19" t="s">
@@ -1680,12 +1579,6 @@
       <c r="G20" t="s">
         <v>49</v>
       </c>
-      <c r="H20" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" t="s">
-        <v>49</v>
-      </c>
       <c r="J20" t="s">
         <v>49</v>
       </c>
@@ -1699,12 +1592,6 @@
         <v>49</v>
       </c>
       <c r="N20" t="s">
-        <v>49</v>
-      </c>
-      <c r="O20" t="s">
-        <v>49</v>
-      </c>
-      <c r="P20" t="s">
         <v>49</v>
       </c>
       <c r="Q20" t="s">
@@ -1736,32 +1623,23 @@
       <c r="H21" t="s">
         <v>55</v>
       </c>
-      <c r="I21" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" t="s">
-        <v>54</v>
-      </c>
       <c r="K21" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="L21" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="M21" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="N21" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="O21" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="P21" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1789,32 +1667,23 @@
       <c r="H22" t="s">
         <v>56</v>
       </c>
-      <c r="I22" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" t="s">
-        <v>31</v>
-      </c>
       <c r="K22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M22" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="N22" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="O22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P22" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1842,32 +1711,20 @@
       <c r="H23" t="s">
         <v>61</v>
       </c>
-      <c r="I23" t="s">
+      <c r="L23" t="s">
+        <v>54</v>
+      </c>
+      <c r="M23" t="s">
         <v>52</v>
       </c>
-      <c r="J23" t="s">
-        <v>52</v>
-      </c>
-      <c r="K23" t="s">
-        <v>62</v>
-      </c>
-      <c r="L23" t="s">
-        <v>55</v>
-      </c>
-      <c r="M23" t="s">
-        <v>54</v>
-      </c>
       <c r="N23" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O23" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="P23" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1895,32 +1752,20 @@
       <c r="H24" t="s">
         <v>62</v>
       </c>
-      <c r="I24" t="s">
+      <c r="L24" t="s">
         <v>55</v>
       </c>
-      <c r="J24" t="s">
+      <c r="M24" t="s">
+        <v>54</v>
+      </c>
+      <c r="N24" t="s">
+        <v>35</v>
+      </c>
+      <c r="O24" t="s">
         <v>53</v>
       </c>
-      <c r="K24" t="s">
-        <v>63</v>
-      </c>
-      <c r="L24" t="s">
-        <v>56</v>
-      </c>
-      <c r="M24" t="s">
-        <v>36</v>
-      </c>
-      <c r="N24" t="s">
-        <v>36</v>
-      </c>
-      <c r="O24" t="s">
-        <v>35</v>
-      </c>
       <c r="P24" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1948,32 +1793,17 @@
       <c r="H25" t="s">
         <v>63</v>
       </c>
-      <c r="I25" t="s">
+      <c r="L25" t="s">
         <v>56</v>
       </c>
-      <c r="J25" t="s">
-        <v>66</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="M25" t="s">
+        <v>55</v>
+      </c>
+      <c r="N25" t="s">
+        <v>52</v>
+      </c>
+      <c r="O25" t="s">
         <v>31</v>
-      </c>
-      <c r="L25" t="s">
-        <v>61</v>
-      </c>
-      <c r="M25" t="s">
-        <v>53</v>
-      </c>
-      <c r="N25" t="s">
-        <v>53</v>
-      </c>
-      <c r="O25" t="s">
-        <v>36</v>
-      </c>
-      <c r="P25" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1998,35 +1828,17 @@
       <c r="G26" t="s">
         <v>36</v>
       </c>
-      <c r="H26" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="L26" t="s">
         <v>61</v>
       </c>
-      <c r="J26" t="s">
-        <v>55</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="M26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N26" t="s">
+        <v>54</v>
+      </c>
+      <c r="O26" t="s">
         <v>35</v>
-      </c>
-      <c r="L26" t="s">
-        <v>62</v>
-      </c>
-      <c r="M26" t="s">
-        <v>55</v>
-      </c>
-      <c r="N26" t="s">
-        <v>51</v>
-      </c>
-      <c r="O26" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2051,35 +1863,17 @@
       <c r="G27" t="s">
         <v>37</v>
       </c>
-      <c r="H27" t="s">
-        <v>35</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="L27" t="s">
         <v>51</v>
       </c>
-      <c r="J27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" t="s">
-        <v>37</v>
-      </c>
-      <c r="L27" t="s">
-        <v>63</v>
-      </c>
       <c r="M27" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="N27" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="O27" t="s">
-        <v>51</v>
-      </c>
-      <c r="P27" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2104,35 +1898,14 @@
       <c r="G28" t="s">
         <v>41</v>
       </c>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I28" t="s">
-        <v>40</v>
-      </c>
-      <c r="J28" t="s">
-        <v>40</v>
-      </c>
-      <c r="K28" t="s">
-        <v>40</v>
-      </c>
       <c r="L28" t="s">
         <v>40</v>
       </c>
       <c r="M28" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="N28" t="s">
-        <v>41</v>
-      </c>
-      <c r="O28" t="s">
-        <v>41</v>
-      </c>
-      <c r="P28" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2157,35 +1930,20 @@
       <c r="G29" t="s">
         <v>45</v>
       </c>
-      <c r="H29" t="s">
+      <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="I29" t="s">
+      <c r="L29" t="s">
         <v>45</v>
       </c>
-      <c r="J29" t="s">
+      <c r="M29" t="s">
         <v>45</v>
       </c>
-      <c r="K29" t="s">
-        <v>66</v>
-      </c>
-      <c r="L29" t="s">
-        <v>58</v>
-      </c>
-      <c r="M29" t="s">
-        <v>58</v>
-      </c>
       <c r="N29" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="O29" t="s">
-        <v>58</v>
-      </c>
-      <c r="P29" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2210,20 +1968,11 @@
       <c r="G30" t="s">
         <v>43</v>
       </c>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" t="s">
-        <v>43</v>
-      </c>
-      <c r="J30" t="s">
-        <v>43</v>
-      </c>
       <c r="K30" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="L30" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="M30" t="s">
         <v>65</v>
@@ -2234,14 +1983,13 @@
       <c r="O30" t="s">
         <v>65</v>
       </c>
-      <c r="P30" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>65</v>
-      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:Q30">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>C2=""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5095,30 +4843,30 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0"/>
   <conditionalFormatting sqref="B2:B37">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C37">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D37">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:S37">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>VLOOKUP((E2),Cronograma!$A$2:$B$30,2,FALSE)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>VLOOKUP((E2),Cronograma!$A$2:$B$30,2,FALSE)=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:S37">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>AND(NOT(IFERROR(VLOOKUP((E2),Cronograma!$A$2:$B$30,2,FALSE), FALSE)=TRUE), F2="")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Cronograma-2026-01-01-2026-01-15.xlsx
+++ b/Cronograma-2026-01-01-2026-01-15.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="71">
   <si>
     <t>Puestos</t>
   </si>
@@ -132,112 +132,112 @@
     <t>N - Barra y salón</t>
   </si>
   <si>
+    <t>Betsy Mauribel</t>
+  </si>
+  <si>
+    <t>Gilvert</t>
+  </si>
+  <si>
+    <t>Efigenia</t>
+  </si>
+  <si>
+    <t>Dora</t>
+  </si>
+  <si>
+    <t>German Avila</t>
+  </si>
+  <si>
+    <t>Angie Castillo</t>
+  </si>
+  <si>
+    <t>Erika Mayerlli</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
+    <t>Adriana</t>
+  </si>
+  <si>
+    <t>Claudia Patricia</t>
+  </si>
+  <si>
+    <t>Ofelia</t>
+  </si>
+  <si>
+    <t>Maria Alejandra</t>
+  </si>
+  <si>
+    <t>Maria Naydu</t>
+  </si>
+  <si>
+    <t>Tatiana</t>
+  </si>
+  <si>
+    <t>Rosalba</t>
+  </si>
+  <si>
+    <t>Luz Mery</t>
+  </si>
+  <si>
+    <t>Jeferson</t>
+  </si>
+  <si>
+    <t>Claudia Milena</t>
+  </si>
+  <si>
+    <t>Victor Julio</t>
+  </si>
+  <si>
+    <t>Yenifer</t>
+  </si>
+  <si>
+    <t>Xiomara</t>
+  </si>
+  <si>
+    <t>Rosa Angelica</t>
+  </si>
+  <si>
+    <t>Darcy Lorena</t>
+  </si>
+  <si>
+    <t>Maribel</t>
+  </si>
+  <si>
+    <t>Maria Paula</t>
+  </si>
+  <si>
+    <t>Luisa Viviana</t>
+  </si>
+  <si>
+    <t>Luz Estela</t>
+  </si>
+  <si>
+    <t>Angie Marcela</t>
+  </si>
+  <si>
+    <t>Carolina</t>
+  </si>
+  <si>
+    <t>Stefany</t>
+  </si>
+  <si>
+    <t>Diana Carolina Molina</t>
+  </si>
+  <si>
+    <t>Elisa Parra</t>
+  </si>
+  <si>
+    <t>Anyelis</t>
+  </si>
+  <si>
+    <t>Alba Becerra</t>
+  </si>
+  <si>
     <t>Adanies</t>
   </si>
   <si>
-    <t>Alba Becerra</t>
-  </si>
-  <si>
-    <t>Efigenia</t>
-  </si>
-  <si>
-    <t>Angie Castillo</t>
-  </si>
-  <si>
-    <t>Anyelis</t>
-  </si>
-  <si>
-    <t>Darcy Lorena</t>
-  </si>
-  <si>
-    <t>Elisa Parra</t>
-  </si>
-  <si>
     <t>Gisela</t>
-  </si>
-  <si>
-    <t>Adriana</t>
-  </si>
-  <si>
-    <t>Claudia Patricia</t>
-  </si>
-  <si>
-    <t>Luz Estela</t>
-  </si>
-  <si>
-    <t>Dora</t>
-  </si>
-  <si>
-    <t>Carolina</t>
-  </si>
-  <si>
-    <t>Tatiana</t>
-  </si>
-  <si>
-    <t>Angie Marcela</t>
-  </si>
-  <si>
-    <t>Luz Mery</t>
-  </si>
-  <si>
-    <t>Jeferson</t>
-  </si>
-  <si>
-    <t>Claudia Milena</t>
-  </si>
-  <si>
-    <t>Victor Julio</t>
-  </si>
-  <si>
-    <t>Luisa Viviana</t>
-  </si>
-  <si>
-    <t>Maria Paula</t>
-  </si>
-  <si>
-    <t>Maribel</t>
-  </si>
-  <si>
-    <t>German Avila</t>
-  </si>
-  <si>
-    <t>Rosa Angelica</t>
-  </si>
-  <si>
-    <t>Xiomara</t>
-  </si>
-  <si>
-    <t>Yenifer</t>
-  </si>
-  <si>
-    <t>Ofelia</t>
-  </si>
-  <si>
-    <t>Rosalba</t>
-  </si>
-  <si>
-    <t>Maria Naydu</t>
-  </si>
-  <si>
-    <t>Diana Carolina Molina</t>
-  </si>
-  <si>
-    <t>Erika Mayerlli</t>
-  </si>
-  <si>
-    <t>Gilvert</t>
-  </si>
-  <si>
-    <t>Betsy Mauribel</t>
-  </si>
-  <si>
-    <t>Martha</t>
-  </si>
-  <si>
-    <t>Maria Alejandra</t>
-  </si>
-  <si>
-    <t>Stefany</t>
   </si>
   <si>
     <t>Nombre</t>
@@ -650,15 +650,10 @@
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -725,46 +720,46 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="Q2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -778,22 +773,22 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
         <v>32</v>
@@ -808,16 +803,16 @@
         <v>50</v>
       </c>
       <c r="N3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" t="s">
         <v>56</v>
-      </c>
-      <c r="P3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -831,10 +826,10 @@
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -843,31 +838,31 @@
         <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="J4" t="s">
         <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="M4" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q4" t="s">
         <v>33</v>
@@ -884,46 +879,46 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" t="s">
-        <v>53</v>
-      </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
         <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="Q5" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -937,43 +932,46 @@
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>64</v>
+      </c>
+      <c r="I6" t="s">
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K6" t="s">
         <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="M6" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="O6" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="P6" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="Q6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -987,37 +985,46 @@
         <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" t="s">
         <v>63</v>
       </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M7" t="s">
-        <v>62</v>
-      </c>
-      <c r="N7" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" t="s">
-        <v>37</v>
+      <c r="P7" t="s">
+        <v>65</v>
       </c>
       <c r="Q7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1031,34 +1038,37 @@
         <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" t="s">
-        <v>54</v>
+        <v>37</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="M8" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="N8" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="O8" t="s">
-        <v>50</v>
+        <v>64</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1072,43 +1082,43 @@
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
         <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" t="s">
         <v>38</v>
-      </c>
-      <c r="J9" t="s">
-        <v>64</v>
       </c>
       <c r="K9" t="s">
         <v>38</v>
       </c>
       <c r="L9" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="M9" t="s">
         <v>38</v>
       </c>
       <c r="N9" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="P9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q9" t="s">
         <v>38</v>
@@ -1128,40 +1138,31 @@
         <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
         <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" t="s">
         <v>39</v>
       </c>
       <c r="J10" t="s">
         <v>39</v>
       </c>
       <c r="K10" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="L10" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="N10" t="s">
         <v>39</v>
       </c>
       <c r="O10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="Q10" t="s">
         <v>39</v>
@@ -1184,30 +1185,24 @@
         <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="L11" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="M11" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="N11" t="s">
-        <v>57</v>
-      </c>
-      <c r="O11" t="s">
         <v>57</v>
       </c>
       <c r="Q11" t="s">
@@ -1231,31 +1226,28 @@
         <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>41</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1269,37 +1261,34 @@
         <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
         <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K13" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L13" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M13" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="N13" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q13" t="s">
         <v>42</v>
@@ -1322,13 +1311,13 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" t="s">
-        <v>65</v>
+        <v>43</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
       </c>
       <c r="K14" t="s">
         <v>43</v>
@@ -1342,7 +1331,7 @@
       <c r="N14" t="s">
         <v>43</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Q14" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1357,7 +1346,7 @@
         <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
         <v>44</v>
@@ -1366,33 +1355,21 @@
         <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" t="s">
         <v>44</v>
       </c>
       <c r="J15" t="s">
         <v>44</v>
       </c>
       <c r="K15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L15" t="s">
         <v>44</v>
       </c>
       <c r="M15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N15" t="s">
-        <v>44</v>
-      </c>
-      <c r="O15" t="s">
-        <v>42</v>
-      </c>
-      <c r="P15" t="s">
         <v>44</v>
       </c>
       <c r="Q15" t="s">
@@ -1416,28 +1393,28 @@
         <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" t="s">
-        <v>58</v>
+        <v>45</v>
+      </c>
+      <c r="J16" t="s">
+        <v>45</v>
       </c>
       <c r="K16" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="L16" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="M16" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="N16" t="s">
-        <v>58</v>
-      </c>
-      <c r="O16" t="s">
-        <v>58</v>
+        <v>45</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1451,31 +1428,34 @@
         <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
       </c>
       <c r="K17" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="L17" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M17" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="N17" t="s">
         <v>46</v>
       </c>
-      <c r="O17" t="s">
-        <v>34</v>
+      <c r="Q17" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1512,9 +1492,6 @@
       <c r="N18" t="s">
         <v>47</v>
       </c>
-      <c r="O18" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
@@ -1609,19 +1586,22 @@
         <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="J21" t="s">
+        <v>56</v>
       </c>
       <c r="K21" t="s">
         <v>31</v>
@@ -1633,13 +1613,16 @@
         <v>31</v>
       </c>
       <c r="N21" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="O21" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="P21" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1653,37 +1636,40 @@
         <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" t="s">
         <v>37</v>
       </c>
-      <c r="F22" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" t="s">
-        <v>56</v>
-      </c>
-      <c r="K22" t="s">
-        <v>54</v>
-      </c>
       <c r="L22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N22" t="s">
+        <v>37</v>
+      </c>
+      <c r="O22" t="s">
         <v>52</v>
       </c>
-      <c r="M22" t="s">
-        <v>35</v>
-      </c>
-      <c r="N22" t="s">
-        <v>63</v>
-      </c>
-      <c r="O22" t="s">
-        <v>62</v>
-      </c>
       <c r="P22" t="s">
-        <v>62</v>
+        <v>52</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1697,34 +1683,40 @@
         <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="J23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" t="s">
+        <v>56</v>
       </c>
       <c r="L23" t="s">
+        <v>56</v>
+      </c>
+      <c r="M23" t="s">
+        <v>60</v>
+      </c>
+      <c r="N23" t="s">
+        <v>60</v>
+      </c>
+      <c r="O23" t="s">
         <v>54</v>
       </c>
-      <c r="M23" t="s">
-        <v>52</v>
-      </c>
-      <c r="N23" t="s">
-        <v>31</v>
-      </c>
-      <c r="O23" t="s">
-        <v>63</v>
-      </c>
       <c r="P23" t="s">
-        <v>63</v>
+        <v>54</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1738,34 +1730,40 @@
         <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24" t="s">
         <v>63</v>
       </c>
-      <c r="H24" t="s">
+      <c r="K24" t="s">
         <v>62</v>
       </c>
       <c r="L24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N24" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="O24" t="s">
         <v>53</v>
       </c>
       <c r="P24" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1779,31 +1777,37 @@
         <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" t="s">
         <v>63</v>
       </c>
       <c r="L25" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N25" t="s">
         <v>52</v>
       </c>
       <c r="O25" t="s">
-        <v>31</v>
+        <v>55</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1817,28 +1821,34 @@
         <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>54</v>
+      </c>
+      <c r="J26" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" t="s">
+        <v>53</v>
       </c>
       <c r="L26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N26" t="s">
         <v>54</v>
       </c>
-      <c r="O26" t="s">
-        <v>35</v>
+      <c r="Q26" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1852,28 +1862,31 @@
         <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>55</v>
+      </c>
+      <c r="K27" t="s">
+        <v>65</v>
       </c>
       <c r="L27" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="M27" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="N27" t="s">
         <v>55</v>
       </c>
-      <c r="O27" t="s">
-        <v>52</v>
+      <c r="Q27" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1893,10 +1906,16 @@
         <v>57</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G28" t="s">
-        <v>41</v>
+        <v>57</v>
+      </c>
+      <c r="J28" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" t="s">
+        <v>40</v>
       </c>
       <c r="L28" t="s">
         <v>40</v>
@@ -1925,25 +1944,28 @@
         <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="K29" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M29" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N29" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="O29" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1963,25 +1985,25 @@
         <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="K30" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L30" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M30" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N30" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="O30" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2070,7 +2092,7 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="B2">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E2:S2, Cronograma!A2:A30)))</f>
@@ -2147,7 +2169,7 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B3">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E3:S3, Cronograma!A2:A30)))</f>
@@ -2224,7 +2246,7 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E4:S4, Cronograma!A2:A30)))</f>
@@ -2301,7 +2323,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E5:S5, Cronograma!A2:A30)))</f>
@@ -2378,7 +2400,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E6:S6, Cronograma!A2:A30)))</f>
@@ -2455,7 +2477,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E7:S7, Cronograma!A2:A30)))</f>
@@ -2609,7 +2631,7 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E9:S9, Cronograma!A2:A30)))</f>
@@ -2686,7 +2708,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E10:S10, Cronograma!A2:A30)))</f>
@@ -2763,7 +2785,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E11:S11, Cronograma!A2:A30)))</f>
@@ -2840,7 +2862,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B12">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E12:S12, Cronograma!A2:A30)))</f>
@@ -2917,7 +2939,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B13">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E13:S13, Cronograma!A2:A30)))</f>
@@ -2994,7 +3016,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E14:S14, Cronograma!A2:A30)))</f>
@@ -3071,7 +3093,7 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E15:S15, Cronograma!A2:A30)))</f>
@@ -3148,7 +3170,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E16:S16, Cronograma!A2:A30)))</f>
@@ -3225,7 +3247,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B17">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E17:S17, Cronograma!A2:A30)))</f>
@@ -3379,7 +3401,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B19">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E19:S19, Cronograma!A2:A30)))</f>
@@ -3456,7 +3478,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B20">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E20:S20, Cronograma!A2:A30)))</f>
@@ -3610,7 +3632,7 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B22">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E22:S22, Cronograma!A2:A30)))</f>
@@ -3687,7 +3709,7 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E23:S23, Cronograma!A2:A30)))</f>
@@ -3764,7 +3786,7 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E24:S24, Cronograma!A2:A30)))</f>
@@ -3841,7 +3863,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B25">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E25:S25, Cronograma!A2:A30)))</f>
@@ -3918,7 +3940,7 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B26">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E26:S26, Cronograma!A2:A30)))</f>
@@ -4149,7 +4171,7 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B29">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E29:S29, Cronograma!A2:A30)))</f>
@@ -4226,7 +4248,7 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B30">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E30:S30, Cronograma!A2:A30)))</f>
@@ -4380,7 +4402,7 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E32:S32, Cronograma!A2:A30)))</f>
@@ -4457,7 +4479,7 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B33">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E33:S33, Cronograma!A2:A30)))</f>
@@ -4534,7 +4556,7 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E34:S34, Cronograma!A2:A30)))</f>
@@ -4611,7 +4633,7 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E35:S35, Cronograma!A2:A30)))</f>

--- a/Cronograma-2026-01-01-2026-01-15.xlsx
+++ b/Cronograma-2026-01-01-2026-01-15.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="71">
   <si>
     <t>Puestos</t>
   </si>
@@ -219,25 +219,25 @@
     <t>Carolina</t>
   </si>
   <si>
+    <t>Diana Carolina Molina</t>
+  </si>
+  <si>
+    <t>Alba Becerra</t>
+  </si>
+  <si>
+    <t>Anyelis</t>
+  </si>
+  <si>
+    <t>Adanies</t>
+  </si>
+  <si>
+    <t>Elisa Parra</t>
+  </si>
+  <si>
+    <t>Gisela</t>
+  </si>
+  <si>
     <t>Stefany</t>
-  </si>
-  <si>
-    <t>Diana Carolina Molina</t>
-  </si>
-  <si>
-    <t>Elisa Parra</t>
-  </si>
-  <si>
-    <t>Anyelis</t>
-  </si>
-  <si>
-    <t>Alba Becerra</t>
-  </si>
-  <si>
-    <t>Adanies</t>
-  </si>
-  <si>
-    <t>Gisela</t>
   </si>
   <si>
     <t>Nombre</t>
@@ -650,10 +650,14 @@
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -720,46 +724,46 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="O2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -773,46 +777,46 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" t="s">
         <v>62</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -832,16 +836,16 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
         <v>33</v>
@@ -859,10 +863,10 @@
         <v>33</v>
       </c>
       <c r="O4" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="P4" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="Q4" t="s">
         <v>33</v>
@@ -879,46 +883,46 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="N5" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="Q5" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -932,46 +936,46 @@
         <v>35</v>
       </c>
       <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
         <v>35</v>
       </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" t="s">
-        <v>64</v>
-      </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="M6" t="s">
         <v>35</v>
       </c>
       <c r="N6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" t="s">
         <v>35</v>
       </c>
-      <c r="O6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" t="s">
-        <v>64</v>
-      </c>
       <c r="Q6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -985,46 +989,46 @@
         <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="M7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="P7" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="Q7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1038,37 +1042,46 @@
         <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>66</v>
+      </c>
+      <c r="H8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" t="s">
+        <v>62</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="K8" t="s">
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="M8" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="N8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="O8" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="P8" t="s">
+        <v>61</v>
       </c>
       <c r="Q8" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1082,43 +1095,43 @@
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
         <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="K9" t="s">
         <v>38</v>
       </c>
       <c r="L9" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="M9" t="s">
         <v>38</v>
       </c>
       <c r="N9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" t="s">
         <v>38</v>
       </c>
-      <c r="O9" t="s">
-        <v>66</v>
-      </c>
       <c r="P9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q9" t="s">
         <v>38</v>
@@ -1146,8 +1159,14 @@
       <c r="G10" t="s">
         <v>39</v>
       </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="K10" t="s">
         <v>39</v>
@@ -1162,7 +1181,10 @@
         <v>39</v>
       </c>
       <c r="O10" t="s">
-        <v>57</v>
+        <v>39</v>
+      </c>
+      <c r="P10" t="s">
+        <v>39</v>
       </c>
       <c r="Q10" t="s">
         <v>39</v>
@@ -1179,34 +1201,46 @@
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>57</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>47</v>
       </c>
       <c r="J11" t="s">
         <v>47</v>
       </c>
       <c r="K11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" t="s">
         <v>57</v>
       </c>
-      <c r="L11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" t="s">
-        <v>57</v>
-      </c>
       <c r="Q11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1220,10 +1254,10 @@
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
         <v>41</v>
@@ -1231,23 +1265,35 @@
       <c r="G12" t="s">
         <v>41</v>
       </c>
+      <c r="H12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="N12" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="O12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P12" t="s">
+        <v>47</v>
       </c>
       <c r="Q12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1264,31 +1310,40 @@
         <v>42</v>
       </c>
       <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" t="s">
         <v>42</v>
       </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" t="s">
-        <v>42</v>
+      <c r="I13" t="s">
+        <v>34</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N13" t="s">
         <v>42</v>
       </c>
       <c r="O13" t="s">
-        <v>65</v>
+        <v>42</v>
+      </c>
+      <c r="P13" t="s">
+        <v>42</v>
       </c>
       <c r="Q13" t="s">
         <v>42</v>
@@ -1311,10 +1366,16 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" t="s">
+        <v>59</v>
       </c>
       <c r="J14" t="s">
         <v>43</v>
@@ -1323,12 +1384,18 @@
         <v>43</v>
       </c>
       <c r="L14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" t="s">
         <v>43</v>
       </c>
-      <c r="M14" t="s">
+      <c r="O14" t="s">
         <v>43</v>
       </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
         <v>43</v>
       </c>
       <c r="Q14" t="s">
@@ -1357,6 +1424,12 @@
       <c r="G15" t="s">
         <v>44</v>
       </c>
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
       <c r="J15" t="s">
         <v>44</v>
       </c>
@@ -1370,6 +1443,12 @@
         <v>44</v>
       </c>
       <c r="N15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" t="s">
+        <v>44</v>
+      </c>
+      <c r="P15" t="s">
         <v>44</v>
       </c>
       <c r="Q15" t="s">
@@ -1390,31 +1469,43 @@
         <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" t="s">
         <v>45</v>
       </c>
       <c r="J16" t="s">
         <v>45</v>
       </c>
       <c r="K16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" t="s">
+        <v>58</v>
+      </c>
+      <c r="N16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" t="s">
         <v>45</v>
       </c>
-      <c r="L16" t="s">
-        <v>45</v>
-      </c>
-      <c r="M16" t="s">
-        <v>45</v>
-      </c>
-      <c r="N16" t="s">
-        <v>45</v>
+      <c r="P16" t="s">
+        <v>63</v>
       </c>
       <c r="Q16" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1428,34 +1519,46 @@
         <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
         <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>36</v>
+      </c>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K17" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="L17" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M17" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="N17" t="s">
-        <v>46</v>
+        <v>36</v>
+      </c>
+      <c r="O17" t="s">
+        <v>36</v>
+      </c>
+      <c r="P17" t="s">
+        <v>36</v>
       </c>
       <c r="Q17" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1469,7 +1572,7 @@
         <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
         <v>47</v>
@@ -1478,7 +1581,16 @@
         <v>47</v>
       </c>
       <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
         <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
       </c>
       <c r="K18" t="s">
         <v>47</v>
@@ -1487,9 +1599,18 @@
         <v>47</v>
       </c>
       <c r="M18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18" t="s">
         <v>47</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q18" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1515,6 +1636,12 @@
       <c r="G19" t="s">
         <v>48</v>
       </c>
+      <c r="H19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" t="s">
+        <v>48</v>
+      </c>
       <c r="J19" t="s">
         <v>48</v>
       </c>
@@ -1528,6 +1655,12 @@
         <v>48</v>
       </c>
       <c r="N19" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" t="s">
+        <v>48</v>
+      </c>
+      <c r="P19" t="s">
         <v>48</v>
       </c>
       <c r="Q19" t="s">
@@ -1556,6 +1689,12 @@
       <c r="G20" t="s">
         <v>49</v>
       </c>
+      <c r="H20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" t="s">
+        <v>49</v>
+      </c>
       <c r="J20" t="s">
         <v>49</v>
       </c>
@@ -1569,6 +1708,12 @@
         <v>49</v>
       </c>
       <c r="N20" t="s">
+        <v>49</v>
+      </c>
+      <c r="O20" t="s">
+        <v>49</v>
+      </c>
+      <c r="P20" t="s">
         <v>49</v>
       </c>
       <c r="Q20" t="s">
@@ -1586,43 +1731,46 @@
         <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="H21" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="I21" t="s">
+        <v>66</v>
       </c>
       <c r="J21" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K21" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="L21" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M21" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N21" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P21" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Q21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1636,34 +1784,40 @@
         <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G22" t="s">
         <v>51</v>
       </c>
+      <c r="H22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" t="s">
+        <v>50</v>
+      </c>
       <c r="J22" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="K22" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L22" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M22" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N22" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="P22" t="s">
         <v>52</v>
@@ -1683,19 +1837,25 @@
         <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="H23" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" t="s">
+        <v>51</v>
       </c>
       <c r="J23" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="K23" t="s">
         <v>56</v>
@@ -1704,19 +1864,19 @@
         <v>56</v>
       </c>
       <c r="M23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N23" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="O23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P23" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="Q23" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1730,40 +1890,46 @@
         <v>53</v>
       </c>
       <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" t="s">
         <v>53</v>
       </c>
-      <c r="E24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" t="s">
-        <v>53</v>
-      </c>
       <c r="J24" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="K24" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="L24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P24" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="Q24" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1777,37 +1943,46 @@
         <v>54</v>
       </c>
       <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" t="s">
         <v>52</v>
       </c>
-      <c r="E25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" t="s">
-        <v>52</v>
-      </c>
       <c r="J25" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="K25" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="L25" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="M25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N25" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="O25" t="s">
         <v>55</v>
       </c>
+      <c r="P25" t="s">
+        <v>66</v>
+      </c>
       <c r="Q25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1821,34 +1996,46 @@
         <v>55</v>
       </c>
       <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" t="s">
         <v>54</v>
       </c>
-      <c r="E26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" t="s">
-        <v>54</v>
-      </c>
       <c r="J26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" t="s">
+        <v>52</v>
+      </c>
+      <c r="M26" t="s">
+        <v>66</v>
+      </c>
+      <c r="N26" t="s">
         <v>53</v>
       </c>
-      <c r="L26" t="s">
-        <v>63</v>
-      </c>
-      <c r="M26" t="s">
-        <v>54</v>
-      </c>
-      <c r="N26" t="s">
-        <v>54</v>
+      <c r="O26" t="s">
+        <v>37</v>
+      </c>
+      <c r="P26" t="s">
+        <v>56</v>
       </c>
       <c r="Q26" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1862,31 +2049,46 @@
         <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G27" t="s">
-        <v>55</v>
+        <v>64</v>
+      </c>
+      <c r="H27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" t="s">
+        <v>56</v>
       </c>
       <c r="K27" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="L27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M27" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="N27" t="s">
-        <v>55</v>
+        <v>37</v>
+      </c>
+      <c r="O27" t="s">
+        <v>31</v>
+      </c>
+      <c r="P27" t="s">
+        <v>31</v>
       </c>
       <c r="Q27" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1900,31 +2102,46 @@
         <v>57</v>
       </c>
       <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" t="s">
         <v>57</v>
       </c>
-      <c r="E28" t="s">
+      <c r="L28" t="s">
         <v>57</v>
       </c>
-      <c r="F28" t="s">
+      <c r="M28" t="s">
         <v>57</v>
       </c>
-      <c r="G28" t="s">
+      <c r="N28" t="s">
         <v>57</v>
       </c>
-      <c r="J28" t="s">
-        <v>40</v>
-      </c>
-      <c r="K28" t="s">
-        <v>40</v>
-      </c>
-      <c r="L28" t="s">
-        <v>40</v>
-      </c>
-      <c r="M28" t="s">
-        <v>40</v>
-      </c>
-      <c r="N28" t="s">
-        <v>40</v>
+      <c r="O28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1941,22 +2158,31 @@
         <v>58</v>
       </c>
       <c r="E29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" t="s">
         <v>58</v>
       </c>
-      <c r="F29" t="s">
+      <c r="J29" t="s">
         <v>58</v>
       </c>
-      <c r="G29" t="s">
-        <v>58</v>
-      </c>
       <c r="K29" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="L29" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="M29" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="N29" t="s">
         <v>58</v>
@@ -1964,8 +2190,11 @@
       <c r="O29" t="s">
         <v>58</v>
       </c>
+      <c r="P29" t="s">
+        <v>58</v>
+      </c>
       <c r="Q29" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1982,13 +2211,22 @@
         <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="H30" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" t="s">
+        <v>42</v>
       </c>
       <c r="K30" t="s">
         <v>59</v>
@@ -2003,6 +2241,12 @@
         <v>59</v>
       </c>
       <c r="O30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q30" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2092,7 +2336,7 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E2:S2, Cronograma!A2:A30)))</f>
@@ -2169,7 +2413,7 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B3">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E3:S3, Cronograma!A2:A30)))</f>
@@ -2323,7 +2567,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E5:S5, Cronograma!A2:A30)))</f>
@@ -2477,7 +2721,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E7:S7, Cronograma!A2:A30)))</f>
@@ -2631,7 +2875,7 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E9:S9, Cronograma!A2:A30)))</f>
@@ -2785,7 +3029,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E11:S11, Cronograma!A2:A30)))</f>
@@ -3247,7 +3491,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B17">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E17:S17, Cronograma!A2:A30)))</f>

--- a/Cronograma-2026-01-01-2026-01-15.xlsx
+++ b/Cronograma-2026-01-01-2026-01-15.xlsx
@@ -138,103 +138,103 @@
     <t>Gilvert</t>
   </si>
   <si>
+    <t>Erika Mayerlli</t>
+  </si>
+  <si>
+    <t>Dora</t>
+  </si>
+  <si>
+    <t>Yenifer</t>
+  </si>
+  <si>
+    <t>Xiomara</t>
+  </si>
+  <si>
+    <t>Rosa Angelica</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
+    <t>Luz Mery</t>
+  </si>
+  <si>
+    <t>Jeferson</t>
+  </si>
+  <si>
+    <t>Ofelia</t>
+  </si>
+  <si>
+    <t>Maria Alejandra</t>
+  </si>
+  <si>
+    <t>Maria Naydu</t>
+  </si>
+  <si>
+    <t>Tatiana</t>
+  </si>
+  <si>
+    <t>Rosalba</t>
+  </si>
+  <si>
+    <t>Angie Castillo</t>
+  </si>
+  <si>
+    <t>Claudia Milena</t>
+  </si>
+  <si>
+    <t>Victor Julio</t>
+  </si>
+  <si>
+    <t>Maribel</t>
+  </si>
+  <si>
+    <t>Maria Paula</t>
+  </si>
+  <si>
+    <t>Luisa Viviana</t>
+  </si>
+  <si>
+    <t>German Avila</t>
+  </si>
+  <si>
+    <t>Elisa Parra</t>
+  </si>
+  <si>
+    <t>Darcy Lorena</t>
+  </si>
+  <si>
+    <t>Anyelis</t>
+  </si>
+  <si>
+    <t>Luz Estela</t>
+  </si>
+  <si>
+    <t>Angie Marcela</t>
+  </si>
+  <si>
+    <t>Carolina</t>
+  </si>
+  <si>
+    <t>Diana Carolina Molina</t>
+  </si>
+  <si>
+    <t>Alba Becerra</t>
+  </si>
+  <si>
     <t>Efigenia</t>
   </si>
   <si>
-    <t>Dora</t>
-  </si>
-  <si>
-    <t>German Avila</t>
-  </si>
-  <si>
-    <t>Angie Castillo</t>
-  </si>
-  <si>
-    <t>Erika Mayerlli</t>
-  </si>
-  <si>
-    <t>Martha</t>
+    <t>Adanies</t>
+  </si>
+  <si>
+    <t>Gisela</t>
   </si>
   <si>
     <t>Adriana</t>
   </si>
   <si>
     <t>Claudia Patricia</t>
-  </si>
-  <si>
-    <t>Ofelia</t>
-  </si>
-  <si>
-    <t>Maria Alejandra</t>
-  </si>
-  <si>
-    <t>Maria Naydu</t>
-  </si>
-  <si>
-    <t>Tatiana</t>
-  </si>
-  <si>
-    <t>Rosalba</t>
-  </si>
-  <si>
-    <t>Luz Mery</t>
-  </si>
-  <si>
-    <t>Jeferson</t>
-  </si>
-  <si>
-    <t>Claudia Milena</t>
-  </si>
-  <si>
-    <t>Victor Julio</t>
-  </si>
-  <si>
-    <t>Yenifer</t>
-  </si>
-  <si>
-    <t>Xiomara</t>
-  </si>
-  <si>
-    <t>Rosa Angelica</t>
-  </si>
-  <si>
-    <t>Darcy Lorena</t>
-  </si>
-  <si>
-    <t>Maribel</t>
-  </si>
-  <si>
-    <t>Maria Paula</t>
-  </si>
-  <si>
-    <t>Luisa Viviana</t>
-  </si>
-  <si>
-    <t>Luz Estela</t>
-  </si>
-  <si>
-    <t>Angie Marcela</t>
-  </si>
-  <si>
-    <t>Carolina</t>
-  </si>
-  <si>
-    <t>Diana Carolina Molina</t>
-  </si>
-  <si>
-    <t>Alba Becerra</t>
-  </si>
-  <si>
-    <t>Anyelis</t>
-  </si>
-  <si>
-    <t>Adanies</t>
-  </si>
-  <si>
-    <t>Elisa Parra</t>
-  </si>
-  <si>
-    <t>Gisela</t>
   </si>
   <si>
     <t>Stefany</t>
@@ -652,11 +652,11 @@
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -724,46 +724,46 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" t="s">
         <v>60</v>
       </c>
-      <c r="E2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="M2" t="s">
         <v>60</v>
       </c>
-      <c r="H2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
       <c r="N2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -777,46 +777,46 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" t="s">
         <v>51</v>
       </c>
-      <c r="F3" t="s">
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" t="s">
         <v>51</v>
       </c>
-      <c r="G3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3" t="s">
-        <v>61</v>
-      </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="P3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -830,46 +830,46 @@
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="N4" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="P4" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -889,40 +889,40 @@
         <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N5" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="O5" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -936,46 +936,46 @@
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
         <v>55</v>
       </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
       <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" t="s">
         <v>55</v>
       </c>
-      <c r="K6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" t="s">
-        <v>51</v>
-      </c>
       <c r="O6" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q6" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -989,46 +989,46 @@
         <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
         <v>55</v>
       </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" t="s">
-        <v>50</v>
-      </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1042,46 +1042,46 @@
         <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" t="s">
         <v>62</v>
       </c>
-      <c r="J8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N8" t="s">
-        <v>56</v>
-      </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P8" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="Q8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1095,43 +1095,43 @@
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
         <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I9" t="s">
         <v>38</v>
       </c>
       <c r="J9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K9" t="s">
         <v>38</v>
       </c>
       <c r="L9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M9" t="s">
         <v>38</v>
       </c>
       <c r="N9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O9" t="s">
         <v>38</v>
       </c>
       <c r="P9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q9" t="s">
         <v>38</v>
@@ -1148,46 +1148,46 @@
         <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="L10" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="N10" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="O10" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="P10" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="Q10" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1201,46 +1201,46 @@
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" t="s">
         <v>41</v>
       </c>
-      <c r="I11" t="s">
-        <v>47</v>
-      </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="K11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" t="s">
         <v>40</v>
       </c>
-      <c r="L11" t="s">
-        <v>41</v>
-      </c>
       <c r="M11" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N11" t="s">
         <v>41</v>
       </c>
       <c r="O11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="Q11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1254,46 +1254,46 @@
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
         <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="J12" t="s">
         <v>40</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" t="s">
         <v>40</v>
       </c>
-      <c r="M12" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" t="s">
-        <v>40</v>
-      </c>
-      <c r="O12" t="s">
-        <v>47</v>
-      </c>
-      <c r="P12" t="s">
-        <v>47</v>
-      </c>
       <c r="Q12" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1307,22 +1307,22 @@
         <v>42</v>
       </c>
       <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
         <v>42</v>
       </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" t="s">
         <v>42</v>
-      </c>
-      <c r="I13" t="s">
-        <v>34</v>
       </c>
       <c r="J13" t="s">
         <v>34</v>
@@ -1331,22 +1331,22 @@
         <v>34</v>
       </c>
       <c r="L13" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N13" t="s">
         <v>34</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" t="s">
         <v>43</v>
       </c>
-      <c r="N13" t="s">
-        <v>42</v>
-      </c>
-      <c r="O13" t="s">
-        <v>42</v>
-      </c>
       <c r="P13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Q13" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1363,43 +1363,43 @@
         <v>43</v>
       </c>
       <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
         <v>43</v>
       </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" t="s">
-        <v>42</v>
-      </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="K14" t="s">
         <v>43</v>
       </c>
       <c r="L14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" t="s">
         <v>42</v>
       </c>
-      <c r="N14" t="s">
-        <v>43</v>
-      </c>
       <c r="O14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P14" t="s">
         <v>43</v>
       </c>
       <c r="Q14" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1416,16 +1416,16 @@
         <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
         <v>44</v>
       </c>
       <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s">
         <v>44</v>
-      </c>
-      <c r="H15" t="s">
-        <v>34</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
@@ -1437,7 +1437,7 @@
         <v>44</v>
       </c>
       <c r="L15" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M15" t="s">
         <v>44</v>
@@ -1452,7 +1452,7 @@
         <v>44</v>
       </c>
       <c r="Q15" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1469,43 +1469,43 @@
         <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="I16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" t="s">
         <v>45</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" t="s">
         <v>45</v>
       </c>
-      <c r="K16" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" t="s">
-        <v>58</v>
-      </c>
-      <c r="M16" t="s">
-        <v>58</v>
-      </c>
       <c r="N16" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="O16" t="s">
         <v>45</v>
       </c>
       <c r="P16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1519,46 +1519,46 @@
         <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s">
         <v>46</v>
       </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J17" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K17" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="L17" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M17" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N17" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="O17" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="P17" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="Q17" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1569,49 +1569,49 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K18" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="L18" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M18" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="N18" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="O18" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="P18" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q18" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1622,49 +1622,49 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1675,49 +1675,49 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1728,49 +1728,49 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
         <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="I21" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="J21" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="L21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" t="s">
+        <v>50</v>
+      </c>
+      <c r="N21" t="s">
         <v>37</v>
       </c>
-      <c r="M21" t="s">
-        <v>37</v>
-      </c>
-      <c r="N21" t="s">
-        <v>63</v>
-      </c>
       <c r="O21" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="P21" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="Q21" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1781,49 +1781,49 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" t="s">
+        <v>49</v>
+      </c>
+      <c r="N22" t="s">
         <v>51</v>
       </c>
-      <c r="D22" t="s">
+      <c r="O22" t="s">
+        <v>49</v>
+      </c>
+      <c r="P22" t="s">
         <v>66</v>
       </c>
-      <c r="E22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" t="s">
-        <v>50</v>
-      </c>
-      <c r="J22" t="s">
-        <v>31</v>
-      </c>
-      <c r="K22" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" t="s">
-        <v>32</v>
-      </c>
-      <c r="N22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O22" t="s">
-        <v>32</v>
-      </c>
-      <c r="P22" t="s">
-        <v>52</v>
-      </c>
       <c r="Q22" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1834,49 +1834,49 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
         <v>31</v>
       </c>
-      <c r="E23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" t="s">
-        <v>52</v>
-      </c>
       <c r="H23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="J23" t="s">
         <v>66</v>
       </c>
       <c r="K23" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="L23" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M23" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="N23" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="O23" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="P23" t="s">
         <v>37</v>
       </c>
       <c r="Q23" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1887,37 +1887,37 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H24" t="s">
         <v>54</v>
       </c>
       <c r="I24" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J24" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="K24" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="L24" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="M24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N24" t="s">
         <v>54</v>
@@ -1926,10 +1926,10 @@
         <v>52</v>
       </c>
       <c r="P24" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="Q24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1940,49 +1940,49 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="F25" t="s">
         <v>35</v>
       </c>
       <c r="G25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" t="s">
         <v>55</v>
       </c>
-      <c r="H25" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" t="s">
-        <v>52</v>
-      </c>
-      <c r="J25" t="s">
-        <v>53</v>
-      </c>
       <c r="K25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L25" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="M25" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="N25" t="s">
         <v>35</v>
       </c>
       <c r="O25" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q25" t="s">
         <v>55</v>
-      </c>
-      <c r="P25" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1993,49 +1993,49 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" t="s">
         <v>55</v>
       </c>
-      <c r="D26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" t="s">
-        <v>62</v>
-      </c>
       <c r="H26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I26" t="s">
         <v>54</v>
       </c>
       <c r="J26" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="K26" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L26" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M26" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="N26" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26" t="s">
+        <v>55</v>
+      </c>
+      <c r="P26" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q26" t="s">
         <v>53</v>
-      </c>
-      <c r="O26" t="s">
-        <v>37</v>
-      </c>
-      <c r="P26" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2046,49 +2046,49 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" t="s">
+        <v>53</v>
+      </c>
+      <c r="M27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" t="s">
+        <v>66</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q27" t="s">
         <v>50</v>
-      </c>
-      <c r="E27" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" t="s">
-        <v>64</v>
-      </c>
-      <c r="H27" t="s">
-        <v>50</v>
-      </c>
-      <c r="I27" t="s">
-        <v>56</v>
-      </c>
-      <c r="J27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" t="s">
-        <v>37</v>
-      </c>
-      <c r="L27" t="s">
-        <v>63</v>
-      </c>
-      <c r="M27" t="s">
-        <v>64</v>
-      </c>
-      <c r="N27" t="s">
-        <v>37</v>
-      </c>
-      <c r="O27" t="s">
-        <v>31</v>
-      </c>
-      <c r="P27" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2099,46 +2099,46 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" t="s">
         <v>41</v>
       </c>
-      <c r="E28" t="s">
-        <v>40</v>
-      </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="H28" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="I28" t="s">
         <v>41</v>
       </c>
       <c r="J28" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28" t="s">
+        <v>56</v>
+      </c>
+      <c r="L28" t="s">
         <v>41</v>
       </c>
-      <c r="K28" t="s">
-        <v>57</v>
-      </c>
-      <c r="L28" t="s">
-        <v>57</v>
-      </c>
       <c r="M28" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="N28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O28" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="P28" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="Q28" t="s">
         <v>41</v>
@@ -2152,46 +2152,46 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F29" t="s">
         <v>45</v>
       </c>
       <c r="G29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" t="s">
         <v>45</v>
       </c>
-      <c r="H29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I29" t="s">
-        <v>58</v>
-      </c>
       <c r="J29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="M29" t="s">
         <v>45</v>
       </c>
       <c r="N29" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P29" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="Q29" t="s">
         <v>45</v>
@@ -2205,49 +2205,49 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" t="s">
         <v>42</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" t="s">
         <v>43</v>
-      </c>
-      <c r="G30" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" t="s">
-        <v>42</v>
       </c>
       <c r="J30" t="s">
         <v>42</v>
       </c>
       <c r="K30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L30" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M30" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="N30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P30" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q30" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E2:S2, Cronograma!A2:A30)))</f>
@@ -2346,8 +2346,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E2:S2, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D2" cm="1">
-        <f t="array" ref="D2">SUMPRODUCT((F2:S2="") * NOT(IFERROR(VLOOKUP((E2:R2),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D2">
+        <f>SUM(IF(AND(ISERROR(MATCH(A2, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A2, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A2, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A2, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A2, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A2, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A2, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A2, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A2, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A2, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A2, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A2, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A2, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A2, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A2, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A2, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A2, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A2, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A2, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A2, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A2, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A2, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A2, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A2, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A2, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A2, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A2, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A2, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E2" cm="1">
@@ -2413,7 +2413,7 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E3:S3, Cronograma!A2:A30)))</f>
@@ -2423,8 +2423,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E3:S3, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D3" cm="1">
-        <f t="array" ref="D3">SUMPRODUCT((F3:S3="") * NOT(IFERROR(VLOOKUP((E3:R3),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D3">
+        <f>SUM(IF(AND(ISERROR(MATCH(A3, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A3, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A3, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A3, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A3, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A3, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A3, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A3, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A3, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A3, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A3, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A3, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A3, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A3, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A3, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A3, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A3, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A3, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A3, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A3, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A3, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A3, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A3, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A3, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A3, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A3, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A3, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A3, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E3" cm="1">
@@ -2490,7 +2490,7 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E4:S4, Cronograma!A2:A30)))</f>
@@ -2500,8 +2500,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E4:S4, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D4" cm="1">
-        <f t="array" ref="D4">SUMPRODUCT((F4:S4="") * NOT(IFERROR(VLOOKUP((E4:R4),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D4">
+        <f>SUM(IF(AND(ISERROR(MATCH(A4, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A4, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A4, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A4, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A4, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A4, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A4, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A4, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A4, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A4, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A4, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A4, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A4, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A4, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A4, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A4, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A4, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A4, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A4, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A4, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A4, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A4, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A4, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A4, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A4, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A4, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A4, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A4, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E4" cm="1">
@@ -2567,7 +2567,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E5:S5, Cronograma!A2:A30)))</f>
@@ -2577,8 +2577,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E5:S5, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D5" cm="1">
-        <f t="array" ref="D5">SUMPRODUCT((F5:S5="") * NOT(IFERROR(VLOOKUP((E5:R5),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D5">
+        <f>SUM(IF(AND(ISERROR(MATCH(A5, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A5, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A5, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A5, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A5, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A5, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A5, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A5, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A5, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A5, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A5, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A5, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A5, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A5, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A5, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A5, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A5, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A5, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A5, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A5, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A5, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A5, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A5, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A5, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A5, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A5, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A5, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A5, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E5" cm="1">
@@ -2644,7 +2644,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E6:S6, Cronograma!A2:A30)))</f>
@@ -2654,8 +2654,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E6:S6, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D6" cm="1">
-        <f t="array" ref="D6">SUMPRODUCT((F6:S6="") * NOT(IFERROR(VLOOKUP((E6:R6),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D6">
+        <f>SUM(IF(AND(ISERROR(MATCH(A6, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A6, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A6, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A6, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A6, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A6, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A6, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A6, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A6, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A6, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A6, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A6, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A6, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A6, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A6, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A6, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A6, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A6, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A6, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A6, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A6, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A6, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A6, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A6, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A6, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A6, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A6, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A6, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E6" cm="1">
@@ -2721,7 +2721,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E7:S7, Cronograma!A2:A30)))</f>
@@ -2731,8 +2731,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E7:S7, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D7" cm="1">
-        <f t="array" ref="D7">SUMPRODUCT((F7:S7="") * NOT(IFERROR(VLOOKUP((E7:R7),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D7">
+        <f>SUM(IF(AND(ISERROR(MATCH(A7, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A7, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A7, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A7, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A7, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A7, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A7, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A7, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A7, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A7, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A7, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A7, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A7, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A7, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A7, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A7, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A7, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A7, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A7, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A7, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A7, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A7, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A7, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A7, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A7, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A7, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A7, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A7, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E7" cm="1">
@@ -2798,7 +2798,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B8">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E8:S8, Cronograma!A2:A30)))</f>
@@ -2808,8 +2808,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E8:S8, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D8" cm="1">
-        <f t="array" ref="D8">SUMPRODUCT((F8:S8="") * NOT(IFERROR(VLOOKUP((E8:R8),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D8">
+        <f>SUM(IF(AND(ISERROR(MATCH(A8, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A8, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A8, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A8, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A8, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A8, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A8, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A8, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A8, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A8, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A8, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A8, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A8, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A8, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A8, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A8, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A8, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A8, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A8, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A8, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A8, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A8, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A8, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A8, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A8, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A8, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A8, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A8, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E8" cm="1">
@@ -2875,7 +2875,7 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E9:S9, Cronograma!A2:A30)))</f>
@@ -2885,8 +2885,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E9:S9, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D9" cm="1">
-        <f t="array" ref="D9">SUMPRODUCT((F9:S9="") * NOT(IFERROR(VLOOKUP((E9:R9),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D9">
+        <f>SUM(IF(AND(ISERROR(MATCH(A9, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A9, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A9, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A9, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A9, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A9, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A9, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A9, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A9, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A9, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A9, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A9, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A9, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A9, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A9, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A9, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A9, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A9, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A9, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A9, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A9, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A9, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A9, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A9, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A9, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A9, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A9, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A9, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E9" cm="1">
@@ -2952,7 +2952,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B10">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E10:S10, Cronograma!A2:A30)))</f>
@@ -2962,8 +2962,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E10:S10, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D10" cm="1">
-        <f t="array" ref="D10">SUMPRODUCT((F10:S10="") * NOT(IFERROR(VLOOKUP((E10:R10),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D10">
+        <f>SUM(IF(AND(ISERROR(MATCH(A10, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A10, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A10, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A10, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A10, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A10, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A10, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A10, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A10, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A10, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A10, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A10, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A10, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A10, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A10, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A10, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A10, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A10, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A10, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A10, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A10, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A10, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A10, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A10, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A10, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A10, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A10, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A10, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E10" cm="1">
@@ -3029,7 +3029,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E11:S11, Cronograma!A2:A30)))</f>
@@ -3039,8 +3039,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E11:S11, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D11" cm="1">
-        <f t="array" ref="D11">SUMPRODUCT((F11:S11="") * NOT(IFERROR(VLOOKUP((E11:R11),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D11">
+        <f>SUM(IF(AND(ISERROR(MATCH(A11, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A11, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A11, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A11, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A11, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A11, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A11, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A11, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A11, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A11, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A11, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A11, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A11, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A11, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A11, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A11, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A11, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A11, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A11, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A11, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A11, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A11, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A11, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A11, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A11, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A11, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A11, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A11, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E11" cm="1">
@@ -3106,7 +3106,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E12:S12, Cronograma!A2:A30)))</f>
@@ -3116,8 +3116,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E12:S12, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D12" cm="1">
-        <f t="array" ref="D12">SUMPRODUCT((F12:S12="") * NOT(IFERROR(VLOOKUP((E12:R12),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D12">
+        <f>SUM(IF(AND(ISERROR(MATCH(A12, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A12, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A12, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A12, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A12, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A12, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A12, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A12, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A12, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A12, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A12, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A12, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A12, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A12, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A12, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A12, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A12, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A12, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A12, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A12, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A12, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A12, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A12, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A12, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A12, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A12, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A12, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A12, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E12" cm="1">
@@ -3183,7 +3183,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E13:S13, Cronograma!A2:A30)))</f>
@@ -3193,8 +3193,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E13:S13, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D13" cm="1">
-        <f t="array" ref="D13">SUMPRODUCT((F13:S13="") * NOT(IFERROR(VLOOKUP((E13:R13),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D13">
+        <f>SUM(IF(AND(ISERROR(MATCH(A13, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A13, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A13, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A13, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A13, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A13, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A13, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A13, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A13, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A13, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A13, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A13, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A13, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A13, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A13, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A13, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A13, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A13, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A13, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A13, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A13, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A13, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A13, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A13, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A13, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A13, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A13, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A13, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E13" cm="1">
@@ -3260,7 +3260,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B14">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E14:S14, Cronograma!A2:A30)))</f>
@@ -3270,8 +3270,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E14:S14, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D14" cm="1">
-        <f t="array" ref="D14">SUMPRODUCT((F14:S14="") * NOT(IFERROR(VLOOKUP((E14:R14),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D14">
+        <f>SUM(IF(AND(ISERROR(MATCH(A14, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A14, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A14, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A14, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A14, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A14, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A14, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A14, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A14, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A14, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A14, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A14, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A14, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A14, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A14, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A14, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A14, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A14, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A14, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A14, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A14, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A14, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A14, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A14, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A14, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A14, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A14, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A14, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E14" cm="1">
@@ -3347,8 +3347,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E15:S15, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D15" cm="1">
-        <f t="array" ref="D15">SUMPRODUCT((F15:S15="") * NOT(IFERROR(VLOOKUP((E15:R15),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D15">
+        <f>SUM(IF(AND(ISERROR(MATCH(A15, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A15, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A15, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A15, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A15, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A15, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A15, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A15, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A15, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A15, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A15, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A15, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A15, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A15, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A15, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A15, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A15, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A15, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A15, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A15, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A15, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A15, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A15, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A15, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A15, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A15, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A15, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A15, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E15" cm="1">
@@ -3414,7 +3414,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E16:S16, Cronograma!A2:A30)))</f>
@@ -3424,8 +3424,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E16:S16, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D16" cm="1">
-        <f t="array" ref="D16">SUMPRODUCT((F16:S16="") * NOT(IFERROR(VLOOKUP((E16:R16),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D16">
+        <f>SUM(IF(AND(ISERROR(MATCH(A16, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A16, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A16, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A16, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A16, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A16, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A16, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A16, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A16, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A16, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A16, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A16, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A16, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A16, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A16, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A16, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A16, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A16, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A16, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A16, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A16, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A16, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A16, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A16, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A16, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A16, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A16, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A16, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E16" cm="1">
@@ -3501,8 +3501,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E17:S17, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D17" cm="1">
-        <f t="array" ref="D17">SUMPRODUCT((F17:S17="") * NOT(IFERROR(VLOOKUP((E17:R17),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D17">
+        <f>SUM(IF(AND(ISERROR(MATCH(A17, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A17, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A17, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A17, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A17, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A17, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A17, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A17, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A17, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A17, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A17, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A17, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A17, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A17, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A17, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A17, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A17, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A17, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A17, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A17, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A17, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A17, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A17, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A17, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A17, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A17, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A17, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A17, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E17" cm="1">
@@ -3568,7 +3568,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E18:S18, Cronograma!A2:A30)))</f>
@@ -3578,8 +3578,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E18:S18, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D18" cm="1">
-        <f t="array" ref="D18">SUMPRODUCT((F18:S18="") * NOT(IFERROR(VLOOKUP((E18:R18),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D18">
+        <f>SUM(IF(AND(ISERROR(MATCH(A18, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A18, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A18, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A18, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A18, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A18, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A18, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A18, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A18, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A18, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A18, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A18, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A18, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A18, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A18, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A18, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A18, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A18, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A18, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A18, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A18, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A18, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A18, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A18, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A18, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A18, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A18, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A18, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E18" cm="1">
@@ -3645,7 +3645,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B19">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E19:S19, Cronograma!A2:A30)))</f>
@@ -3655,8 +3655,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E19:S19, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D19" cm="1">
-        <f t="array" ref="D19">SUMPRODUCT((F19:S19="") * NOT(IFERROR(VLOOKUP((E19:R19),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D19">
+        <f>SUM(IF(AND(ISERROR(MATCH(A19, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A19, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A19, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A19, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A19, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A19, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A19, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A19, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A19, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A19, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A19, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A19, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A19, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A19, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A19, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A19, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A19, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A19, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A19, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A19, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A19, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A19, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A19, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A19, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A19, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A19, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A19, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A19, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E19" cm="1">
@@ -3722,7 +3722,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E20:S20, Cronograma!A2:A30)))</f>
@@ -3732,8 +3732,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E20:S20, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D20" cm="1">
-        <f t="array" ref="D20">SUMPRODUCT((F20:S20="") * NOT(IFERROR(VLOOKUP((E20:R20),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D20">
+        <f>SUM(IF(AND(ISERROR(MATCH(A20, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A20, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A20, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A20, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A20, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A20, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A20, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A20, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A20, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A20, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A20, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A20, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A20, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A20, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A20, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A20, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A20, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A20, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A20, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A20, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A20, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A20, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A20, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A20, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A20, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A20, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A20, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A20, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E20" cm="1">
@@ -3799,7 +3799,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E21:S21, Cronograma!A2:A30)))</f>
@@ -3809,8 +3809,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E21:S21, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D21" cm="1">
-        <f t="array" ref="D21">SUMPRODUCT((F21:S21="") * NOT(IFERROR(VLOOKUP((E21:R21),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D21">
+        <f>SUM(IF(AND(ISERROR(MATCH(A21, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A21, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A21, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A21, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A21, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A21, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A21, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A21, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A21, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A21, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A21, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A21, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A21, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A21, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A21, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A21, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A21, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A21, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A21, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A21, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A21, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A21, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A21, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A21, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A21, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A21, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A21, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A21, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E21" cm="1">
@@ -3876,7 +3876,7 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E22:S22, Cronograma!A2:A30)))</f>
@@ -3886,8 +3886,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E22:S22, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D22" cm="1">
-        <f t="array" ref="D22">SUMPRODUCT((F22:S22="") * NOT(IFERROR(VLOOKUP((E22:R22),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D22">
+        <f>SUM(IF(AND(ISERROR(MATCH(A22, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A22, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A22, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A22, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A22, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A22, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A22, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A22, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A22, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A22, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A22, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A22, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A22, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A22, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A22, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A22, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A22, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A22, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A22, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A22, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A22, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A22, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A22, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A22, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A22, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A22, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A22, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A22, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E22" cm="1">
@@ -3963,8 +3963,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E23:S23, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D23" cm="1">
-        <f t="array" ref="D23">SUMPRODUCT((F23:S23="") * NOT(IFERROR(VLOOKUP((E23:R23),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D23">
+        <f>SUM(IF(AND(ISERROR(MATCH(A23, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A23, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A23, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A23, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A23, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A23, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A23, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A23, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A23, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A23, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A23, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A23, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A23, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A23, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A23, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A23, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A23, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A23, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A23, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A23, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A23, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A23, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A23, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A23, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A23, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A23, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A23, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A23, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E23" cm="1">
@@ -4040,8 +4040,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E24:S24, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D24" cm="1">
-        <f t="array" ref="D24">SUMPRODUCT((F24:S24="") * NOT(IFERROR(VLOOKUP((E24:R24),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D24">
+        <f>SUM(IF(AND(ISERROR(MATCH(A24, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A24, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A24, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A24, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A24, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A24, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A24, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A24, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A24, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A24, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A24, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A24, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A24, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A24, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A24, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A24, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A24, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A24, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A24, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A24, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A24, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A24, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A24, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A24, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A24, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A24, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A24, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A24, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E24" cm="1">
@@ -4107,7 +4107,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E25:S25, Cronograma!A2:A30)))</f>
@@ -4117,8 +4117,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E25:S25, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D25" cm="1">
-        <f t="array" ref="D25">SUMPRODUCT((F25:S25="") * NOT(IFERROR(VLOOKUP((E25:R25),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D25">
+        <f>SUM(IF(AND(ISERROR(MATCH(A25, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A25, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A25, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A25, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A25, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A25, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A25, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A25, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A25, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A25, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A25, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A25, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A25, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A25, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A25, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A25, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A25, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A25, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A25, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A25, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A25, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A25, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A25, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A25, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A25, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A25, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A25, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A25, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E25" cm="1">
@@ -4194,8 +4194,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E26:S26, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D26" cm="1">
-        <f t="array" ref="D26">SUMPRODUCT((F26:S26="") * NOT(IFERROR(VLOOKUP((E26:R26),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D26">
+        <f>SUM(IF(AND(ISERROR(MATCH(A26, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A26, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A26, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A26, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A26, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A26, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A26, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A26, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A26, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A26, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A26, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A26, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A26, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A26, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A26, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A26, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A26, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A26, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A26, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A26, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A26, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A26, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A26, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A26, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A26, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A26, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A26, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A26, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E26" cm="1">
@@ -4261,7 +4261,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E27:S27, Cronograma!A2:A30)))</f>
@@ -4271,8 +4271,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E27:S27, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D27" cm="1">
-        <f t="array" ref="D27">SUMPRODUCT((F27:S27="") * NOT(IFERROR(VLOOKUP((E27:R27),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D27">
+        <f>SUM(IF(AND(ISERROR(MATCH(A27, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A27, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A27, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A27, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A27, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A27, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A27, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A27, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A27, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A27, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A27, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A27, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A27, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A27, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A27, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A27, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A27, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A27, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A27, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A27, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A27, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A27, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A27, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A27, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A27, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A27, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A27, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A27, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E27" cm="1">
@@ -4338,7 +4338,7 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E28:S28, Cronograma!A2:A30)))</f>
@@ -4348,8 +4348,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E28:S28, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D28" cm="1">
-        <f t="array" ref="D28">SUMPRODUCT((F28:S28="") * NOT(IFERROR(VLOOKUP((E28:R28),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D28">
+        <f>SUM(IF(AND(ISERROR(MATCH(A28, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A28, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A28, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A28, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A28, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A28, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A28, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A28, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A28, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A28, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A28, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A28, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A28, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A28, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A28, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A28, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A28, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A28, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A28, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A28, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A28, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A28, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A28, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A28, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A28, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A28, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A28, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A28, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E28" cm="1">
@@ -4415,7 +4415,7 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E29:S29, Cronograma!A2:A30)))</f>
@@ -4425,8 +4425,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E29:S29, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D29" cm="1">
-        <f t="array" ref="D29">SUMPRODUCT((F29:S29="") * NOT(IFERROR(VLOOKUP((E29:R29),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D29">
+        <f>SUM(IF(AND(ISERROR(MATCH(A29, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A29, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A29, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A29, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A29, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A29, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A29, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A29, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A29, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A29, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A29, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A29, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A29, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A29, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A29, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A29, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A29, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A29, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A29, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A29, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A29, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A29, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A29, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A29, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A29, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A29, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A29, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A29, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E29" cm="1">
@@ -4502,8 +4502,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E30:S30, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D30" cm="1">
-        <f t="array" ref="D30">SUMPRODUCT((F30:S30="") * NOT(IFERROR(VLOOKUP((E30:R30),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D30">
+        <f>SUM(IF(AND(ISERROR(MATCH(A30, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A30, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A30, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A30, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A30, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A30, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A30, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A30, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A30, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A30, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A30, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A30, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A30, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A30, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A30, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A30, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A30, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A30, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A30, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A30, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A30, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A30, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A30, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A30, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A30, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A30, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A30, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A30, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E30" cm="1">
@@ -4569,7 +4569,7 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E31:S31, Cronograma!A2:A30)))</f>
@@ -4579,8 +4579,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E31:S31, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D31" cm="1">
-        <f t="array" ref="D31">SUMPRODUCT((F31:S31="") * NOT(IFERROR(VLOOKUP((E31:R31),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D31">
+        <f>SUM(IF(AND(ISERROR(MATCH(A31, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A31, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A31, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A31, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A31, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A31, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A31, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A31, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A31, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A31, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A31, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A31, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A31, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A31, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A31, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A31, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A31, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A31, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A31, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A31, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A31, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A31, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A31, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A31, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A31, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A31, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A31, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A31, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E31" cm="1">
@@ -4656,8 +4656,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E32:S32, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D32" cm="1">
-        <f t="array" ref="D32">SUMPRODUCT((F32:S32="") * NOT(IFERROR(VLOOKUP((E32:R32),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D32">
+        <f>SUM(IF(AND(ISERROR(MATCH(A32, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A32, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A32, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A32, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A32, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A32, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A32, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A32, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A32, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A32, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A32, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A32, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A32, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A32, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A32, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A32, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A32, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A32, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A32, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A32, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A32, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A32, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A32, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A32, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A32, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A32, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A32, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A32, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E32" cm="1">
@@ -4723,7 +4723,7 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E33:S33, Cronograma!A2:A30)))</f>
@@ -4733,8 +4733,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E33:S33, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D33" cm="1">
-        <f t="array" ref="D33">SUMPRODUCT((F33:S33="") * NOT(IFERROR(VLOOKUP((E33:R33),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D33">
+        <f>SUM(IF(AND(ISERROR(MATCH(A33, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A33, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A33, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A33, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A33, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A33, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A33, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A33, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A33, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A33, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A33, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A33, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A33, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A33, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A33, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A33, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A33, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A33, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A33, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A33, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A33, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A33, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A33, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A33, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A33, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A33, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A33, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A33, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E33" cm="1">
@@ -4810,8 +4810,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E34:S34, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D34" cm="1">
-        <f t="array" ref="D34">SUMPRODUCT((F34:S34="") * NOT(IFERROR(VLOOKUP((E34:R34),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D34">
+        <f>SUM(IF(AND(ISERROR(MATCH(A34, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A34, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A34, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A34, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A34, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A34, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A34, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A34, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A34, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A34, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A34, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A34, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A34, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A34, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A34, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A34, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A34, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A34, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A34, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A34, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A34, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A34, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A34, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A34, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A34, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A34, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A34, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A34, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E34" cm="1">
@@ -4887,8 +4887,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E35:S35, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D35" cm="1">
-        <f t="array" ref="D35">SUMPRODUCT((F35:S35="") * NOT(IFERROR(VLOOKUP((E35:R35),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D35">
+        <f>SUM(IF(AND(ISERROR(MATCH(A35, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A35, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A35, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A35, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A35, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A35, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A35, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A35, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A35, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A35, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A35, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A35, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A35, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A35, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A35, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A35, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A35, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A35, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A35, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A35, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A35, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A35, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A35, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A35, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A35, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A35, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A35, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A35, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E35" cm="1">
@@ -4964,8 +4964,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E36:S36, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D36" cm="1">
-        <f t="array" ref="D36">SUMPRODUCT((F36:S36="") * NOT(IFERROR(VLOOKUP((E36:R36),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D36">
+        <f>SUM(IF(AND(ISERROR(MATCH(A36, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A36, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A36, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A36, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A36, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A36, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A36, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A36, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A36, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A36, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A36, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A36, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A36, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A36, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A36, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A36, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A36, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A36, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A36, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A36, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A36, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A36, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A36, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A36, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A36, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A36, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A36, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A36, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E36" cm="1">
@@ -5031,7 +5031,7 @@
     </row>
     <row r="37" spans="1:19">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E37:S37, Cronograma!A2:A30)))</f>
@@ -5041,8 +5041,8 @@
         <f>SUMPRODUCT((Cronograma!B2:B30=TRUE) * (COUNTIF(E37:S37, Cronograma!A2:A30)))</f>
         <v>0</v>
       </c>
-      <c r="D37" cm="1">
-        <f t="array" ref="D37">SUMPRODUCT((F37:S37="") * NOT(IFERROR(VLOOKUP((E37:R37),Cronograma!A2:B30,2,FALSE), FALSE)))</f>
+      <c r="D37">
+        <f>SUM(IF(AND(ISERROR(MATCH(A37, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A37, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A37, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A37, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A37, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A37, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A37, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A37, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A37, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A37, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A37, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A37, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A37, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A37, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A37, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A37, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A37, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A37, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A37, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A37, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A37, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A37, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A37, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A37, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A37, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A37, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A37, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A37, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="E37" cm="1">
@@ -5119,21 +5119,91 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D37">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="3" priority="20">
       <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E37">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>OR(AND(ISERROR(MATCH($A2, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH($A2,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH($A2,Cronograma!D$2:D$30,0))=FALSE))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:S37">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>VLOOKUP((E2),Cronograma!$A$2:$B$30,2,FALSE)=FALSE</formula>
+      <formula>VLOOKUP(E2, Cronograma!$A$2:$B$30, 2, FALSE)=FALSE</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>VLOOKUP((E2),Cronograma!$A$2:$B$30,2,FALSE)=TRUE</formula>
+      <formula>VLOOKUP(E2, Cronograma!$A$2:$B$30, 2, FALSE)=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:S37">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>AND(NOT(IFERROR(VLOOKUP((E2),Cronograma!$A$2:$B$30,2,FALSE), FALSE)=TRUE), F2="")</formula>
+  <conditionalFormatting sqref="F2:F37">
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>OR(AND(ISERROR(MATCH($A2, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH($A2,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH($A2,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH($A2, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH($A2,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH($A2,Cronograma!E$2:E$30,0))=FALSE))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G37">
+    <cfRule type="expression" dxfId="3" priority="7">
+      <formula>OR(AND(ISERROR(MATCH($A2, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH($A2,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH($A2,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH($A2, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH($A2,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH($A2,Cronograma!F$2:F$30,0))=FALSE))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H37">
+    <cfRule type="expression" dxfId="3" priority="8">
+      <formula>OR(AND(ISERROR(MATCH($A2, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH($A2,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH($A2,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH($A2, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH($A2,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH($A2,Cronograma!G$2:G$30,0))=FALSE))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I37">
+    <cfRule type="expression" dxfId="3" priority="9">
+      <formula>OR(AND(ISERROR(MATCH($A2, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH($A2,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH($A2,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH($A2, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH($A2,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH($A2,Cronograma!H$2:H$30,0))=FALSE))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J37">
+    <cfRule type="expression" dxfId="3" priority="10">
+      <formula>OR(AND(ISERROR(MATCH($A2, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH($A2,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH($A2,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH($A2, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH($A2,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH($A2,Cronograma!I$2:I$30,0))=FALSE))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K37">
+    <cfRule type="expression" dxfId="3" priority="11">
+      <formula>OR(AND(ISERROR(MATCH($A2, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH($A2,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH($A2,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH($A2, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH($A2,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH($A2,Cronograma!J$2:J$30,0))=FALSE))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L37">
+    <cfRule type="expression" dxfId="3" priority="12">
+      <formula>OR(AND(ISERROR(MATCH($A2, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH($A2,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH($A2,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH($A2, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH($A2,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH($A2,Cronograma!K$2:K$30,0))=FALSE))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M37">
+    <cfRule type="expression" dxfId="3" priority="13">
+      <formula>OR(AND(ISERROR(MATCH($A2, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH($A2,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH($A2,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH($A2, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH($A2,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH($A2,Cronograma!L$2:L$30,0))=FALSE))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N37">
+    <cfRule type="expression" dxfId="3" priority="14">
+      <formula>OR(AND(ISERROR(MATCH($A2, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH($A2,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH($A2,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH($A2, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH($A2,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH($A2,Cronograma!M$2:M$30,0))=FALSE))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O37">
+    <cfRule type="expression" dxfId="3" priority="15">
+      <formula>OR(AND(ISERROR(MATCH($A2, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH($A2,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH($A2,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH($A2, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH($A2,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH($A2,Cronograma!N$2:N$30,0))=FALSE))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P37">
+    <cfRule type="expression" dxfId="3" priority="16">
+      <formula>OR(AND(ISERROR(MATCH($A2, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH($A2,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH($A2,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH($A2, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH($A2,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH($A2,Cronograma!O$2:O$30,0))=FALSE))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q37">
+    <cfRule type="expression" dxfId="3" priority="17">
+      <formula>OR(AND(ISERROR(MATCH($A2, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH($A2,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH($A2,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH($A2, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH($A2,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH($A2,Cronograma!P$2:P$30,0))=FALSE))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R37">
+    <cfRule type="expression" dxfId="3" priority="18">
+      <formula>OR(AND(ISERROR(MATCH($A2, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH($A2,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH($A2,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH($A2, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH($A2,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH($A2,Cronograma!Q$2:Q$30,0))=FALSE))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S37">
+    <cfRule type="expression" dxfId="3" priority="19">
+      <formula>OR(AND(ISERROR(MATCH($A2, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH($A2,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH($A2,Cronograma!P$2:P$30,0))=TRUE))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cronograma-2026-01-01-2026-01-15.xlsx
+++ b/Cronograma-2026-01-01-2026-01-15.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="71">
   <si>
     <t>Puestos</t>
   </si>
@@ -132,22 +132,94 @@
     <t>N - Barra y salón</t>
   </si>
   <si>
+    <t>Diana Carolina Molina</t>
+  </si>
+  <si>
+    <t>Yenifer</t>
+  </si>
+  <si>
+    <t>Efigenia</t>
+  </si>
+  <si>
+    <t>Alba Becerra</t>
+  </si>
+  <si>
+    <t>Angie Castillo</t>
+  </si>
+  <si>
+    <t>Dora</t>
+  </si>
+  <si>
+    <t>Xiomara</t>
+  </si>
+  <si>
+    <t>Gisela</t>
+  </si>
+  <si>
+    <t>Adriana</t>
+  </si>
+  <si>
+    <t>Claudia Patricia</t>
+  </si>
+  <si>
+    <t>Luz Estela</t>
+  </si>
+  <si>
+    <t>Carolina</t>
+  </si>
+  <si>
+    <t>Maria Naydu</t>
+  </si>
+  <si>
+    <t>Tatiana</t>
+  </si>
+  <si>
+    <t>Angie Marcela</t>
+  </si>
+  <si>
+    <t>Luz Mery</t>
+  </si>
+  <si>
+    <t>Jeferson</t>
+  </si>
+  <si>
+    <t>Claudia Milena</t>
+  </si>
+  <si>
+    <t>Victor Julio</t>
+  </si>
+  <si>
+    <t>Elisa Parra</t>
+  </si>
+  <si>
+    <t>Gilvert</t>
+  </si>
+  <si>
     <t>Betsy Mauribel</t>
   </si>
   <si>
-    <t>Gilvert</t>
+    <t>Anyelis</t>
+  </si>
+  <si>
+    <t>German Avila</t>
+  </si>
+  <si>
+    <t>Darcy Lorena</t>
   </si>
   <si>
     <t>Erika Mayerlli</t>
   </si>
   <si>
-    <t>Dora</t>
-  </si>
-  <si>
-    <t>Yenifer</t>
-  </si>
-  <si>
-    <t>Xiomara</t>
+    <t>Ofelia</t>
+  </si>
+  <si>
+    <t>Rosalba</t>
+  </si>
+  <si>
+    <t>Maria Alejandra</t>
+  </si>
+  <si>
+    <t>Luisa Viviana</t>
   </si>
   <si>
     <t>Rosa Angelica</t>
@@ -156,85 +228,13 @@
     <t>Martha</t>
   </si>
   <si>
-    <t>Luz Mery</t>
-  </si>
-  <si>
-    <t>Jeferson</t>
-  </si>
-  <si>
-    <t>Ofelia</t>
-  </si>
-  <si>
-    <t>Maria Alejandra</t>
-  </si>
-  <si>
-    <t>Maria Naydu</t>
-  </si>
-  <si>
-    <t>Tatiana</t>
-  </si>
-  <si>
-    <t>Rosalba</t>
-  </si>
-  <si>
-    <t>Angie Castillo</t>
-  </si>
-  <si>
-    <t>Claudia Milena</t>
-  </si>
-  <si>
-    <t>Victor Julio</t>
+    <t>Adanies</t>
+  </si>
+  <si>
+    <t>Maria Paula</t>
   </si>
   <si>
     <t>Maribel</t>
-  </si>
-  <si>
-    <t>Maria Paula</t>
-  </si>
-  <si>
-    <t>Luisa Viviana</t>
-  </si>
-  <si>
-    <t>German Avila</t>
-  </si>
-  <si>
-    <t>Elisa Parra</t>
-  </si>
-  <si>
-    <t>Darcy Lorena</t>
-  </si>
-  <si>
-    <t>Anyelis</t>
-  </si>
-  <si>
-    <t>Luz Estela</t>
-  </si>
-  <si>
-    <t>Angie Marcela</t>
-  </si>
-  <si>
-    <t>Carolina</t>
-  </si>
-  <si>
-    <t>Diana Carolina Molina</t>
-  </si>
-  <si>
-    <t>Alba Becerra</t>
-  </si>
-  <si>
-    <t>Efigenia</t>
-  </si>
-  <si>
-    <t>Adanies</t>
-  </si>
-  <si>
-    <t>Gisela</t>
-  </si>
-  <si>
-    <t>Adriana</t>
-  </si>
-  <si>
-    <t>Claudia Patricia</t>
   </si>
   <si>
     <t>Stefany</t>
@@ -650,13 +650,11 @@
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -724,46 +722,46 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="P2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="Q2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -777,46 +775,46 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
         <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" t="s">
         <v>51</v>
-      </c>
-      <c r="L3" t="s">
-        <v>50</v>
       </c>
       <c r="M3" t="s">
         <v>51</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="O3" t="s">
         <v>50</v>
       </c>
       <c r="P3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -830,46 +828,46 @@
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="Q4" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -883,46 +881,46 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
       </c>
       <c r="G5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" t="s">
         <v>55</v>
       </c>
-      <c r="H5" t="s">
-        <v>62</v>
-      </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N5" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -936,46 +934,43 @@
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
         <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="N6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O6" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="Q6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -992,43 +987,43 @@
         <v>60</v>
       </c>
       <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
         <v>50</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M7" t="s">
-        <v>35</v>
       </c>
       <c r="N7" t="s">
         <v>53</v>
       </c>
       <c r="O7" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="Q7" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1042,46 +1037,46 @@
         <v>37</v>
       </c>
       <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" t="s">
         <v>51</v>
       </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M8" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" t="s">
-        <v>62</v>
-      </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="P8" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="Q8" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1095,46 +1090,46 @@
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
         <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>63</v>
       </c>
       <c r="G9" t="s">
         <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" t="s">
         <v>38</v>
-      </c>
-      <c r="J9" t="s">
-        <v>63</v>
       </c>
       <c r="K9" t="s">
         <v>38</v>
       </c>
       <c r="L9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M9" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" t="s">
         <v>38</v>
-      </c>
-      <c r="N9" t="s">
-        <v>63</v>
       </c>
       <c r="O9" t="s">
         <v>38</v>
       </c>
       <c r="P9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q9" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1148,46 +1143,46 @@
         <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="K10" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="L10" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="N10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="O10" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="P10" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="Q10" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1201,46 +1196,40 @@
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L11" t="s">
         <v>40</v>
       </c>
       <c r="M11" t="s">
-        <v>56</v>
-      </c>
-      <c r="N11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1254,46 +1243,43 @@
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
         <v>41</v>
       </c>
-      <c r="H12" t="s">
-        <v>40</v>
-      </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="L12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="M12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N12" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="O12" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="P12" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="Q12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1307,46 +1293,46 @@
         <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
         <v>42</v>
       </c>
       <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
         <v>43</v>
       </c>
-      <c r="H13" t="s">
-        <v>58</v>
-      </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="L13" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="M13" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N13" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="O13" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="P13" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="Q13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1363,43 +1349,43 @@
         <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" t="s">
+        <v>59</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="s">
         <v>42</v>
       </c>
-      <c r="G14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" t="s">
-        <v>58</v>
-      </c>
-      <c r="K14" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="Q14" t="s">
         <v>42</v>
-      </c>
-      <c r="M14" t="s">
-        <v>43</v>
-      </c>
-      <c r="N14" t="s">
-        <v>42</v>
-      </c>
-      <c r="O14" t="s">
-        <v>42</v>
-      </c>
-      <c r="P14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1416,16 +1402,16 @@
         <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
         <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
@@ -1437,22 +1423,22 @@
         <v>44</v>
       </c>
       <c r="L15" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M15" t="s">
         <v>44</v>
       </c>
       <c r="N15" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="O15" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="P15" t="s">
         <v>44</v>
       </c>
       <c r="Q15" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1469,43 +1455,43 @@
         <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
         <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="L16" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="M16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1525,40 +1511,37 @@
         <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K17" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="L17" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M17" t="s">
         <v>46</v>
       </c>
       <c r="N17" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="O17" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="P17" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Q17" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1569,49 +1552,46 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J18" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K18" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="L18" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M18" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N18" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="O18" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="P18" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="Q18" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1622,49 +1602,43 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M19" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1675,49 +1649,43 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M20" t="s">
-        <v>48</v>
-      </c>
-      <c r="N20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1728,49 +1696,49 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" t="s">
         <v>66</v>
       </c>
-      <c r="E21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" t="s">
-        <v>37</v>
-      </c>
       <c r="J21" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="K21" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="L21" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="M21" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="N21" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="O21" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="P21" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="Q21" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1781,49 +1749,49 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" t="s">
         <v>50</v>
       </c>
-      <c r="D22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" t="s">
-        <v>36</v>
-      </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="K22" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="L22" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M22" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="N22" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="O22" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="P22" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="Q22" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1834,49 +1802,43 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H23" t="s">
         <v>51</v>
       </c>
       <c r="I23" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="J23" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="K23" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" t="s">
+        <v>56</v>
+      </c>
+      <c r="M23" t="s">
         <v>37</v>
       </c>
-      <c r="L23" t="s">
-        <v>33</v>
-      </c>
-      <c r="M23" t="s">
-        <v>31</v>
-      </c>
-      <c r="N23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O23" t="s">
-        <v>33</v>
-      </c>
       <c r="P23" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="Q23" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1887,49 +1849,46 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
         <v>52</v>
       </c>
-      <c r="D24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" t="s">
-        <v>54</v>
-      </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I24" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="J24" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="K24" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="L24" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="M24" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O24" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P24" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="Q24" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1940,49 +1899,49 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" t="s">
         <v>66</v>
       </c>
-      <c r="H25" t="s">
-        <v>52</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>32</v>
       </c>
-      <c r="J25" t="s">
-        <v>55</v>
-      </c>
-      <c r="K25" t="s">
-        <v>51</v>
-      </c>
       <c r="L25" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="M25" t="s">
+        <v>65</v>
+      </c>
+      <c r="N25" t="s">
+        <v>65</v>
+      </c>
+      <c r="O25" t="s">
         <v>66</v>
       </c>
-      <c r="N25" t="s">
-        <v>35</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q25" t="s">
         <v>32</v>
-      </c>
-      <c r="P25" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1993,49 +1952,49 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="G26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H26" t="s">
         <v>50</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="J26" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K26" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="L26" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="M26" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="N26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O26" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="P26" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="Q26" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2046,49 +2005,49 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" t="s">
         <v>32</v>
       </c>
-      <c r="G27" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" t="s">
-        <v>49</v>
-      </c>
       <c r="I27" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="J27" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L27" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="M27" t="s">
         <v>32</v>
       </c>
       <c r="N27" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q27" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2099,46 +2058,40 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G28" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I28" t="s">
         <v>41</v>
       </c>
       <c r="J28" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="K28" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="L28" t="s">
         <v>41</v>
       </c>
       <c r="M28" t="s">
-        <v>65</v>
-      </c>
-      <c r="N28" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="O28" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="P28" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="Q28" t="s">
         <v>41</v>
@@ -2152,46 +2105,46 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" t="s">
         <v>66</v>
       </c>
-      <c r="E29" t="s">
-        <v>57</v>
-      </c>
       <c r="F29" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" t="s">
         <v>45</v>
-      </c>
-      <c r="G29" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" t="s">
-        <v>66</v>
       </c>
       <c r="I29" t="s">
         <v>45</v>
       </c>
       <c r="J29" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
       </c>
       <c r="L29" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="M29" t="s">
+        <v>66</v>
+      </c>
+      <c r="N29" t="s">
         <v>45</v>
       </c>
-      <c r="N29" t="s">
-        <v>62</v>
-      </c>
       <c r="O29" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="P29" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="Q29" t="s">
         <v>45</v>
@@ -2205,49 +2158,49 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I30" t="s">
         <v>42</v>
-      </c>
-      <c r="E30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I30" t="s">
-        <v>43</v>
       </c>
       <c r="J30" t="s">
         <v>42</v>
       </c>
       <c r="K30" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="L30" t="s">
         <v>42</v>
       </c>
       <c r="M30" t="s">
+        <v>42</v>
+      </c>
+      <c r="N30" t="s">
         <v>43</v>
       </c>
-      <c r="N30" t="s">
-        <v>58</v>
-      </c>
       <c r="O30" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="P30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q30" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2336,7 +2289,7 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E2:S2, Cronograma!A2:A30)))</f>
@@ -2347,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f>SUM(IF(AND(ISERROR(MATCH(A2, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A2, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A2, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A2, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A2, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A2, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A2, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A2, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A2, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A2, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A2, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A2, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A2, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A2, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A2, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A2, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A2, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A2, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A2, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A2, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A2, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A2, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A2, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A2, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A2, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A2, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A2, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A2, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A2,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A2,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A2)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A2)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A2)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A2)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A2)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A2)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A2)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A2)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A2)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A2)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A2)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A2)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A2)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A2)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A2)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A2)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A2)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A2)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A2)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A2)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A2)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A2)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A2)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A2)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A2)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A2)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A2)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A2)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A2)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A2)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A2)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A2)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A2)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A2)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A2)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A2)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A2)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A2)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A2)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A2)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A2)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A2)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A2)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A2)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A2)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A2)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A2)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A2)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A2)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A2)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A2)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A2)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A2)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A2)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A2)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A2)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E2" cm="1">
@@ -2413,7 +2366,7 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E3:S3, Cronograma!A2:A30)))</f>
@@ -2424,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <f>SUM(IF(AND(ISERROR(MATCH(A3, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A3, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A3, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A3, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A3, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A3, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A3, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A3, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A3, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A3, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A3, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A3, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A3, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A3, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A3, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A3, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A3, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A3, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A3, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A3, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A3, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A3, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A3, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A3, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A3, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A3, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A3, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A3, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A3,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A3,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A3)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A3)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A3)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A3)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A3)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A3)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A3)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A3)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A3)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A3)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A3)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A3)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A3)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A3)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A3)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A3)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A3)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A3)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A3)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A3)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A3)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A3)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A3)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A3)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A3)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A3)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A3)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A3)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A3)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A3)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A3)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A3)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A3)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A3)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A3)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A3)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A3)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A3)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A3)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A3)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A3)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A3)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A3)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A3)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A3)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A3)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A3)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A3)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A3)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A3)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A3)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A3)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A3)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A3)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A3)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A3)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E3" cm="1">
@@ -2490,7 +2443,7 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E4:S4, Cronograma!A2:A30)))</f>
@@ -2501,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f>SUM(IF(AND(ISERROR(MATCH(A4, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A4, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A4, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A4, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A4, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A4, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A4, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A4, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A4, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A4, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A4, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A4, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A4, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A4, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A4, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A4, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A4, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A4, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A4, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A4, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A4, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A4, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A4, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A4, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A4, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A4, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A4, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A4, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A4,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A4,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A4)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A4)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A4)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A4)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A4)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A4)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A4)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A4)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A4)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A4)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A4)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A4)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A4)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A4)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A4)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A4)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A4)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A4)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A4)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A4)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A4)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A4)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A4)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A4)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A4)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A4)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A4)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A4)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A4)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A4)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A4)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A4)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A4)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A4)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A4)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A4)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A4)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A4)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A4)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A4)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A4)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A4)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A4)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A4)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A4)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A4)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A4)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A4)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A4)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A4)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A4)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A4)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A4)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A4)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A4)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A4)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E4" cm="1">
@@ -2567,7 +2520,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E5:S5, Cronograma!A2:A30)))</f>
@@ -2578,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <f>SUM(IF(AND(ISERROR(MATCH(A5, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A5, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A5, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A5, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A5, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A5, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A5, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A5, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A5, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A5, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A5, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A5, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A5, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A5, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A5, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A5, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A5, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A5, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A5, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A5, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A5, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A5, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A5, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A5, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A5, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A5, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A5, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A5, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A5,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A5,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A5)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A5)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A5)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A5)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A5)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A5)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A5)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A5)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A5)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A5)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A5)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A5)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A5)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A5)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A5)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A5)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A5)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A5)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A5)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A5)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A5)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A5)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A5)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A5)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A5)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A5)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A5)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A5)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A5)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A5)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A5)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A5)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A5)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A5)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A5)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A5)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A5)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A5)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A5)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A5)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A5)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A5)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A5)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A5)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A5)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A5)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A5)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A5)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A5)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A5)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A5)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A5)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A5)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A5)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A5)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A5)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E5" cm="1">
@@ -2644,7 +2597,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E6:S6, Cronograma!A2:A30)))</f>
@@ -2655,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <f>SUM(IF(AND(ISERROR(MATCH(A6, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A6, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A6, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A6, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A6, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A6, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A6, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A6, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A6, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A6, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A6, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A6, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A6, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A6, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A6, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A6, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A6, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A6, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A6, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A6, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A6, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A6, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A6, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A6, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A6, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A6, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A6, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A6, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A6,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A6,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A6)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A6)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A6)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A6)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A6)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A6)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A6)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A6)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A6)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A6)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A6)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A6)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A6)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A6)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A6)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A6)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A6)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A6)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A6)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A6)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A6)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A6)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A6)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A6)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A6)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A6)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A6)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A6)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A6)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A6)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A6)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A6)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A6)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A6)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A6)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A6)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A6)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A6)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A6)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A6)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A6)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A6)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A6)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A6)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A6)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A6)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A6)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A6)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A6)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A6)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A6)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A6)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A6)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A6)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A6)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A6)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E6" cm="1">
@@ -2721,7 +2674,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E7:S7, Cronograma!A2:A30)))</f>
@@ -2732,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <f>SUM(IF(AND(ISERROR(MATCH(A7, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A7, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A7, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A7, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A7, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A7, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A7, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A7, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A7, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A7, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A7, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A7, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A7, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A7, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A7, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A7, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A7, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A7, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A7, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A7, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A7, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A7, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A7, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A7, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A7, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A7, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A7, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A7, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A7,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A7,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A7)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A7)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A7)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A7)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A7)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A7)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A7)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A7)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A7)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A7)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A7)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A7)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A7)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A7)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A7)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A7)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A7)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A7)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A7)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A7)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A7)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A7)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A7)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A7)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A7)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A7)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A7)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A7)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A7)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A7)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A7)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A7)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A7)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A7)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A7)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A7)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A7)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A7)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A7)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A7)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A7)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A7)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A7)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A7)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A7)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A7)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A7)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A7)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A7)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A7)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A7)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A7)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A7)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A7)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A7)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A7)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E7" cm="1">
@@ -2798,7 +2751,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E8:S8, Cronograma!A2:A30)))</f>
@@ -2809,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <f>SUM(IF(AND(ISERROR(MATCH(A8, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A8, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A8, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A8, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A8, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A8, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A8, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A8, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A8, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A8, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A8, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A8, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A8, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A8, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A8, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A8, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A8, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A8, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A8, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A8, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A8, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A8, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A8, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A8, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A8, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A8, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A8, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A8, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A8,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A8,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A8)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A8)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A8)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A8)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A8)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A8)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A8)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A8)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A8)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A8)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A8)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A8)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A8)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A8)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A8)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A8)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A8)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A8)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A8)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A8)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A8)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A8)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A8)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A8)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A8)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A8)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A8)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A8)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A8)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A8)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A8)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A8)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A8)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A8)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A8)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A8)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A8)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A8)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A8)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A8)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A8)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A8)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A8)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A8)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A8)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A8)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A8)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A8)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A8)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A8)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A8)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A8)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A8)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A8)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A8)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A8)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E8" cm="1">
@@ -2875,7 +2828,7 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E9:S9, Cronograma!A2:A30)))</f>
@@ -2886,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <f>SUM(IF(AND(ISERROR(MATCH(A9, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A9, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A9, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A9, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A9, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A9, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A9, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A9, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A9, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A9, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A9, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A9, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A9, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A9, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A9, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A9, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A9, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A9, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A9, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A9, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A9, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A9, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A9, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A9, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A9, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A9, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A9, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A9, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A9,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A9,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A9)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A9)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A9)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A9)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A9)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A9)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A9)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A9)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A9)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A9)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A9)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A9)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A9)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A9)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A9)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A9)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A9)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A9)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A9)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A9)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A9)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A9)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A9)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A9)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A9)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A9)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A9)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A9)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A9)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A9)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A9)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A9)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A9)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A9)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A9)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A9)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A9)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A9)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A9)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A9)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A9)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A9)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A9)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A9)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A9)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A9)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A9)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A9)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A9)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A9)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A9)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A9)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A9)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A9)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A9)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A9)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E9" cm="1">
@@ -2952,7 +2905,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B10">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E10:S10, Cronograma!A2:A30)))</f>
@@ -2963,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <f>SUM(IF(AND(ISERROR(MATCH(A10, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A10, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A10, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A10, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A10, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A10, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A10, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A10, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A10, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A10, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A10, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A10, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A10, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A10, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A10, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A10, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A10, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A10, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A10, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A10, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A10, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A10, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A10, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A10, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A10, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A10, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A10, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A10, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A10,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A10,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A10)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A10)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A10)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A10)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A10)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A10)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A10)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A10)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A10)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A10)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A10)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A10)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A10)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A10)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A10)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A10)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A10)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A10)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A10)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A10)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A10)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A10)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A10)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A10)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A10)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A10)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A10)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A10)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A10)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A10)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A10)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A10)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A10)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A10)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A10)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A10)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A10)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A10)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A10)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A10)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A10)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A10)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A10)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A10)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A10)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A10)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A10)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A10)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A10)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A10)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A10)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A10)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A10)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A10)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A10)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A10)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E10" cm="1">
@@ -3029,7 +2982,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B11">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E11:S11, Cronograma!A2:A30)))</f>
@@ -3040,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <f>SUM(IF(AND(ISERROR(MATCH(A11, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A11, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A11, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A11, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A11, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A11, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A11, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A11, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A11, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A11, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A11, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A11, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A11, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A11, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A11, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A11, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A11, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A11, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A11, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A11, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A11, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A11, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A11, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A11, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A11, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A11, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A11, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A11, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A11,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A11,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A11)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A11)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A11)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A11)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A11)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A11)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A11)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A11)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A11)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A11)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A11)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A11)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A11)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A11)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A11)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A11)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A11)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A11)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A11)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A11)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A11)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A11)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A11)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A11)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A11)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A11)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A11)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A11)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A11)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A11)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A11)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A11)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A11)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A11)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A11)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A11)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A11)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A11)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A11)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A11)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A11)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A11)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A11)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A11)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A11)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A11)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A11)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A11)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A11)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A11)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A11)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A11)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A11)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A11)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A11)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A11)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E11" cm="1">
@@ -3106,7 +3059,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B12">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E12:S12, Cronograma!A2:A30)))</f>
@@ -3117,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <f>SUM(IF(AND(ISERROR(MATCH(A12, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A12, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A12, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A12, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A12, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A12, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A12, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A12, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A12, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A12, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A12, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A12, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A12, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A12, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A12, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A12, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A12, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A12, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A12, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A12, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A12, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A12, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A12, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A12, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A12, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A12, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A12, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A12, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A12,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A12,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A12)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A12)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A12)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A12)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A12)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A12)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A12)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A12)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A12)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A12)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A12)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A12)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A12)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A12)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A12)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A12)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A12)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A12)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A12)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A12)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A12)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A12)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A12)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A12)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A12)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A12)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A12)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A12)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A12)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A12)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A12)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A12)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A12)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A12)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A12)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A12)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A12)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A12)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A12)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A12)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A12)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A12)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A12)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A12)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A12)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A12)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A12)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A12)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A12)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A12)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A12)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A12)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A12)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A12)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A12)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A12)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E12" cm="1">
@@ -3183,7 +3136,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B13">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E13:S13, Cronograma!A2:A30)))</f>
@@ -3194,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <f>SUM(IF(AND(ISERROR(MATCH(A13, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A13, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A13, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A13, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A13, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A13, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A13, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A13, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A13, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A13, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A13, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A13, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A13, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A13, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A13, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A13, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A13, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A13, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A13, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A13, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A13, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A13, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A13, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A13, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A13, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A13, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A13, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A13, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A13,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A13,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A13)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A13)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A13)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A13)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A13)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A13)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A13)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A13)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A13)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A13)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A13)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A13)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A13)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A13)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A13)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A13)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A13)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A13)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A13)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A13)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A13)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A13)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A13)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A13)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A13)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A13)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A13)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A13)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A13)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A13)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A13)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A13)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A13)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A13)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A13)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A13)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A13)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A13)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A13)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A13)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A13)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A13)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A13)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A13)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A13)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A13)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A13)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A13)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A13)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A13)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A13)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A13)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A13)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A13)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A13)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A13)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E13" cm="1">
@@ -3260,7 +3213,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B14">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E14:S14, Cronograma!A2:A30)))</f>
@@ -3271,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <f>SUM(IF(AND(ISERROR(MATCH(A14, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A14, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A14, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A14, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A14, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A14, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A14, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A14, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A14, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A14, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A14, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A14, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A14, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A14, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A14, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A14, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A14, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A14, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A14, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A14, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A14, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A14, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A14, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A14, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A14, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A14, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A14, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A14, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A14,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A14,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A14)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A14)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A14)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A14)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A14)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A14)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A14)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A14)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A14)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A14)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A14)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A14)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A14)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A14)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A14)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A14)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A14)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A14)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A14)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A14)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A14)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A14)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A14)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A14)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A14)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A14)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A14)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A14)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A14)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A14)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A14)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A14)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A14)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A14)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A14)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A14)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A14)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A14)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A14)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A14)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A14)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A14)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A14)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A14)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A14)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A14)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A14)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A14)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A14)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A14)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A14)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A14)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A14)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A14)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A14)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A14)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E14" cm="1">
@@ -3337,7 +3290,7 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B15">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E15:S15, Cronograma!A2:A30)))</f>
@@ -3348,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <f>SUM(IF(AND(ISERROR(MATCH(A15, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A15, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A15, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A15, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A15, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A15, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A15, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A15, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A15, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A15, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A15, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A15, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A15, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A15, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A15, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A15, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A15, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A15, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A15, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A15, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A15, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A15, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A15, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A15, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A15, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A15, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A15, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A15, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A15,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A15,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A15)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A15)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A15)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A15)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A15)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A15)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A15)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A15)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A15)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A15)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A15)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A15)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A15)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A15)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A15)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A15)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A15)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A15)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A15)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A15)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A15)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A15)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A15)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A15)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A15)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A15)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A15)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A15)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A15)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A15)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A15)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A15)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A15)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A15)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A15)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A15)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A15)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A15)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A15)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A15)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A15)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A15)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A15)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A15)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A15)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A15)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A15)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A15)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A15)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A15)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A15)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A15)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A15)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A15)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A15)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A15)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E15" cm="1">
@@ -3414,7 +3367,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B16">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E16:S16, Cronograma!A2:A30)))</f>
@@ -3425,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <f>SUM(IF(AND(ISERROR(MATCH(A16, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A16, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A16, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A16, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A16, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A16, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A16, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A16, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A16, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A16, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A16, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A16, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A16, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A16, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A16, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A16, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A16, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A16, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A16, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A16, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A16, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A16, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A16, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A16, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A16, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A16, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A16, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A16, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A16,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A16,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A16)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A16)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A16)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A16)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A16)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A16)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A16)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A16)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A16)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A16)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A16)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A16)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A16)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A16)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A16)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A16)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A16)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A16)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A16)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A16)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A16)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A16)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A16)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A16)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A16)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A16)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A16)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A16)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A16)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A16)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A16)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A16)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A16)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A16)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A16)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A16)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A16)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A16)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A16)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A16)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A16)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A16)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A16)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A16)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A16)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A16)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A16)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A16)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A16)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A16)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A16)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A16)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A16)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A16)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A16)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A16)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E16" cm="1">
@@ -3502,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <f>SUM(IF(AND(ISERROR(MATCH(A17, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A17, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A17, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A17, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A17, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A17, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A17, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A17, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A17, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A17, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A17, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A17, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A17, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A17, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A17, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A17, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A17, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A17, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A17, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A17, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A17, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A17, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A17, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A17, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A17, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A17, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A17, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A17, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A17,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A17,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A17)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A17)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A17)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A17)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A17)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A17)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A17)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A17)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A17)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A17)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A17)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A17)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A17)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A17)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A17)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A17)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A17)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A17)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A17)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A17)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A17)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A17)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A17)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A17)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A17)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A17)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A17)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A17)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A17)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A17)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A17)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A17)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A17)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A17)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A17)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A17)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A17)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A17)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A17)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A17)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A17)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A17)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A17)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A17)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A17)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A17)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A17)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A17)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A17)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A17)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A17)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A17)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A17)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A17)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A17)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A17)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E17" cm="1">
@@ -3568,7 +3521,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E18:S18, Cronograma!A2:A30)))</f>
@@ -3579,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <f>SUM(IF(AND(ISERROR(MATCH(A18, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A18, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A18, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A18, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A18, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A18, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A18, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A18, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A18, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A18, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A18, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A18, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A18, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A18, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A18, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A18, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A18, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A18, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A18, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A18, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A18, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A18, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A18, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A18, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A18, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A18, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A18, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A18, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A18,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A18,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A18)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A18)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A18)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A18)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A18)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A18)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A18)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A18)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A18)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A18)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A18)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A18)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A18)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A18)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A18)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A18)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A18)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A18)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A18)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A18)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A18)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A18)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A18)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A18)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A18)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A18)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A18)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A18)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A18)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A18)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A18)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A18)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A18)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A18)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A18)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A18)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A18)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A18)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A18)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A18)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A18)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A18)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A18)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A18)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A18)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A18)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A18)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A18)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A18)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A18)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A18)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A18)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A18)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A18)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A18)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A18)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E18" cm="1">
@@ -3645,7 +3598,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E19:S19, Cronograma!A2:A30)))</f>
@@ -3656,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <f>SUM(IF(AND(ISERROR(MATCH(A19, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A19, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A19, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A19, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A19, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A19, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A19, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A19, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A19, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A19, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A19, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A19, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A19, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A19, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A19, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A19, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A19, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A19, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A19, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A19, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A19, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A19, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A19, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A19, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A19, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A19, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A19, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A19, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A19,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A19,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A19)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A19)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A19)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A19)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A19)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A19)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A19)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A19)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A19)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A19)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A19)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A19)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A19)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A19)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A19)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A19)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A19)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A19)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A19)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A19)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A19)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A19)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A19)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A19)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A19)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A19)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A19)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A19)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A19)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A19)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A19)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A19)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A19)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A19)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A19)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A19)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A19)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A19)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A19)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A19)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A19)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A19)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A19)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A19)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A19)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A19)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A19)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A19)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A19)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A19)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A19)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A19)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A19)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A19)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A19)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A19)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E19" cm="1">
@@ -3722,7 +3675,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E20:S20, Cronograma!A2:A30)))</f>
@@ -3733,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <f>SUM(IF(AND(ISERROR(MATCH(A20, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A20, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A20, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A20, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A20, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A20, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A20, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A20, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A20, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A20, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A20, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A20, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A20, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A20, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A20, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A20, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A20, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A20, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A20, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A20, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A20, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A20, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A20, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A20, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A20, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A20, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A20, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A20, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A20,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A20,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A20)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A20)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A20)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A20)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A20)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A20)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A20)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A20)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A20)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A20)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A20)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A20)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A20)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A20)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A20)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A20)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A20)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A20)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A20)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A20)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A20)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A20)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A20)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A20)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A20)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A20)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A20)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A20)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A20)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A20)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A20)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A20)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A20)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A20)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A20)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A20)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A20)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A20)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A20)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A20)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A20)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A20)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A20)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A20)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A20)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A20)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A20)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A20)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A20)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A20)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A20)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A20)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A20)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A20)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A20)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A20)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E20" cm="1">
@@ -3799,7 +3752,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E21:S21, Cronograma!A2:A30)))</f>
@@ -3810,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <f>SUM(IF(AND(ISERROR(MATCH(A21, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A21, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A21, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A21, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A21, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A21, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A21, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A21, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A21, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A21, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A21, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A21, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A21, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A21, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A21, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A21, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A21, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A21, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A21, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A21, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A21, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A21, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A21, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A21, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A21, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A21, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A21, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A21, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A21,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A21,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A21)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A21)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A21)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A21)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A21)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A21)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A21)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A21)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A21)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A21)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A21)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A21)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A21)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A21)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A21)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A21)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A21)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A21)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A21)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A21)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A21)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A21)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A21)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A21)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A21)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A21)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A21)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A21)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A21)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A21)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A21)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A21)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A21)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A21)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A21)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A21)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A21)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A21)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A21)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A21)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A21)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A21)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A21)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A21)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A21)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A21)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A21)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A21)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A21)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A21)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A21)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A21)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A21)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A21)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A21)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A21)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E21" cm="1">
@@ -3876,7 +3829,7 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B22">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E22:S22, Cronograma!A2:A30)))</f>
@@ -3887,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <f>SUM(IF(AND(ISERROR(MATCH(A22, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A22, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A22, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A22, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A22, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A22, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A22, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A22, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A22, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A22, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A22, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A22, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A22, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A22, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A22, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A22, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A22, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A22, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A22, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A22, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A22, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A22, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A22, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A22, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A22, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A22, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A22, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A22, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A22,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A22,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A22)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A22)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A22)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A22)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A22)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A22)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A22)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A22)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A22)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A22)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A22)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A22)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A22)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A22)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A22)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A22)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A22)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A22)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A22)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A22)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A22)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A22)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A22)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A22)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A22)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A22)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A22)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A22)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A22)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A22)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A22)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A22)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A22)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A22)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A22)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A22)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A22)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A22)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A22)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A22)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A22)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A22)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A22)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A22)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A22)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A22)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A22)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A22)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A22)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A22)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A22)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A22)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A22)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A22)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A22)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A22)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E22" cm="1">
@@ -3953,7 +3906,7 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B23">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E23:S23, Cronograma!A2:A30)))</f>
@@ -3964,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <f>SUM(IF(AND(ISERROR(MATCH(A23, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A23, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A23, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A23, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A23, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A23, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A23, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A23, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A23, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A23, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A23, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A23, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A23, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A23, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A23, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A23, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A23, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A23, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A23, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A23, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A23, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A23, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A23, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A23, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A23, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A23, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A23, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A23, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A23,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A23,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A23)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A23)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A23)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A23)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A23)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A23)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A23)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A23)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A23)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A23)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A23)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A23)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A23)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A23)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A23)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A23)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A23)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A23)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A23)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A23)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A23)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A23)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A23)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A23)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A23)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A23)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A23)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A23)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A23)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A23)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A23)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A23)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A23)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A23)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A23)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A23)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A23)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A23)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A23)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A23)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A23)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A23)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A23)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A23)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A23)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A23)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A23)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A23)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A23)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A23)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A23)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A23)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A23)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A23)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A23)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A23)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E23" cm="1">
@@ -4030,7 +3983,7 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B24">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E24:S24, Cronograma!A2:A30)))</f>
@@ -4041,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <f>SUM(IF(AND(ISERROR(MATCH(A24, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A24, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A24, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A24, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A24, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A24, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A24, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A24, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A24, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A24, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A24, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A24, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A24, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A24, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A24, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A24, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A24, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A24, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A24, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A24, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A24, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A24, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A24, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A24, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A24, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A24, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A24, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A24, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A24,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A24,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A24)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A24)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A24)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A24)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A24)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A24)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A24)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A24)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A24)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A24)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A24)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A24)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A24)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A24)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A24)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A24)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A24)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A24)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A24)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A24)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A24)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A24)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A24)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A24)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A24)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A24)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A24)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A24)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A24)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A24)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A24)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A24)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A24)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A24)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A24)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A24)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A24)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A24)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A24)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A24)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A24)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A24)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A24)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A24)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A24)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A24)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A24)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A24)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A24)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A24)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A24)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A24)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A24)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A24)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A24)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A24)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E24" cm="1">
@@ -4107,7 +4060,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B25">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E25:S25, Cronograma!A2:A30)))</f>
@@ -4118,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <f>SUM(IF(AND(ISERROR(MATCH(A25, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A25, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A25, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A25, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A25, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A25, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A25, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A25, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A25, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A25, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A25, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A25, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A25, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A25, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A25, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A25, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A25, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A25, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A25, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A25, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A25, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A25, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A25, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A25, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A25, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A25, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A25, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A25, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A25,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A25,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A25)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A25)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A25)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A25)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A25)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A25)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A25)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A25)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A25)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A25)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A25)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A25)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A25)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A25)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A25)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A25)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A25)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A25)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A25)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A25)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A25)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A25)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A25)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A25)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A25)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A25)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A25)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A25)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A25)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A25)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A25)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A25)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A25)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A25)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A25)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A25)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A25)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A25)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A25)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A25)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A25)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A25)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A25)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A25)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A25)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A25)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A25)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A25)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A25)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A25)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A25)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A25)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A25)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A25)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A25)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A25)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E25" cm="1">
@@ -4184,7 +4137,7 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E26:S26, Cronograma!A2:A30)))</f>
@@ -4195,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <f>SUM(IF(AND(ISERROR(MATCH(A26, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A26, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A26, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A26, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A26, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A26, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A26, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A26, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A26, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A26, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A26, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A26, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A26, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A26, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A26, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A26, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A26, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A26, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A26, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A26, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A26, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A26, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A26, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A26, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A26, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A26, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A26, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A26, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A26,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A26,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A26)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A26)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A26)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A26)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A26)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A26)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A26)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A26)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A26)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A26)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A26)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A26)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A26)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A26)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A26)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A26)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A26)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A26)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A26)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A26)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A26)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A26)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A26)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A26)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A26)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A26)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A26)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A26)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A26)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A26)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A26)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A26)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A26)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A26)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A26)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A26)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A26)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A26)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A26)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A26)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A26)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A26)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A26)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A26)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A26)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A26)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A26)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A26)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A26)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A26)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A26)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A26)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A26)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A26)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A26)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A26)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E26" cm="1">
@@ -4261,7 +4214,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E27:S27, Cronograma!A2:A30)))</f>
@@ -4272,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <f>SUM(IF(AND(ISERROR(MATCH(A27, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A27, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A27, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A27, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A27, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A27, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A27, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A27, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A27, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A27, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A27, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A27, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A27, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A27, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A27, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A27, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A27, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A27, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A27, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A27, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A27, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A27, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A27, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A27, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A27, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A27, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A27, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A27, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A27,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A27,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A27)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A27)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A27)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A27)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A27)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A27)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A27)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A27)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A27)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A27)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A27)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A27)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A27)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A27)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A27)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A27)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A27)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A27)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A27)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A27)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A27)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A27)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A27)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A27)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A27)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A27)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A27)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A27)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A27)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A27)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A27)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A27)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A27)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A27)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A27)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A27)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A27)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A27)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A27)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A27)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A27)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A27)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A27)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A27)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A27)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A27)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A27)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A27)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A27)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A27)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A27)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A27)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A27)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A27)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A27)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A27)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E27" cm="1">
@@ -4338,7 +4291,7 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E28:S28, Cronograma!A2:A30)))</f>
@@ -4349,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <f>SUM(IF(AND(ISERROR(MATCH(A28, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A28, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A28, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A28, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A28, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A28, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A28, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A28, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A28, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A28, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A28, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A28, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A28, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A28, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A28, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A28, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A28, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A28, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A28, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A28, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A28, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A28, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A28, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A28, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A28, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A28, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A28, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A28, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A28,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A28,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A28)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A28)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A28)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A28)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A28)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A28)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A28)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A28)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A28)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A28)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A28)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A28)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A28)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A28)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A28)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A28)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A28)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A28)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A28)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A28)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A28)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A28)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A28)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A28)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A28)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A28)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A28)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A28)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A28)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A28)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A28)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A28)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A28)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A28)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A28)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A28)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A28)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A28)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A28)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A28)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A28)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A28)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A28)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A28)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A28)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A28)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A28)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A28)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A28)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A28)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A28)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A28)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A28)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A28)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A28)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A28)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E28" cm="1">
@@ -4415,7 +4368,7 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B29">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E29:S29, Cronograma!A2:A30)))</f>
@@ -4426,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <f>SUM(IF(AND(ISERROR(MATCH(A29, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A29, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A29, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A29, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A29, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A29, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A29, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A29, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A29, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A29, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A29, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A29, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A29, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A29, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A29, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A29, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A29, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A29, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A29, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A29, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A29, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A29, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A29, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A29, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A29, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A29, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A29, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A29, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A29,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A29,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A29)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A29)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A29)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A29)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A29)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A29)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A29)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A29)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A29)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A29)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A29)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A29)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A29)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A29)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A29)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A29)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A29)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A29)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A29)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A29)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A29)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A29)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A29)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A29)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A29)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A29)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A29)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A29)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A29)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A29)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A29)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A29)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A29)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A29)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A29)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A29)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A29)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A29)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A29)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A29)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A29)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A29)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A29)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A29)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A29)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A29)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A29)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A29)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A29)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A29)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A29)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A29)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A29)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A29)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A29)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A29)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E29" cm="1">
@@ -4492,7 +4445,7 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B30">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E30:S30, Cronograma!A2:A30)))</f>
@@ -4503,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <f>SUM(IF(AND(ISERROR(MATCH(A30, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A30, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A30, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A30, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A30, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A30, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A30, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A30, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A30, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A30, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A30, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A30, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A30, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A30, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A30, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A30, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A30, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A30, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A30, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A30, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A30, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A30, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A30, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A30, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A30, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A30, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A30, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A30, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A30,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A30,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A30)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A30)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A30)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A30)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A30)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A30)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A30)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A30)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A30)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A30)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A30)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A30)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A30)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A30)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A30)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A30)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A30)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A30)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A30)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A30)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A30)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A30)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A30)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A30)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A30)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A30)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A30)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A30)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A30)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A30)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A30)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A30)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A30)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A30)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A30)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A30)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A30)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A30)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A30)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A30)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A30)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A30)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A30)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A30)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A30)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A30)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A30)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A30)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A30)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A30)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A30)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A30)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A30)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A30)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A30)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A30)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E30" cm="1">
@@ -4569,7 +4522,7 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B31">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E31:S31, Cronograma!A2:A30)))</f>
@@ -4580,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <f>SUM(IF(AND(ISERROR(MATCH(A31, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A31, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A31, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A31, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A31, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A31, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A31, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A31, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A31, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A31, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A31, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A31, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A31, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A31, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A31, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A31, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A31, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A31, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A31, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A31, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A31, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A31, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A31, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A31, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A31, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A31, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A31, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A31, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A31,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A31,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A31)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A31)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A31)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A31)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A31)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A31)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A31)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A31)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A31)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A31)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A31)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A31)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A31)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A31)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A31)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A31)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A31)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A31)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A31)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A31)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A31)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A31)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A31)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A31)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A31)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A31)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A31)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A31)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A31)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A31)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A31)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A31)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A31)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A31)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A31)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A31)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A31)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A31)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A31)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A31)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A31)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A31)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A31)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A31)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A31)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A31)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A31)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A31)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A31)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A31)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A31)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A31)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A31)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A31)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A31)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A31)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E31" cm="1">
@@ -4646,7 +4599,7 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E32:S32, Cronograma!A2:A30)))</f>
@@ -4657,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <f>SUM(IF(AND(ISERROR(MATCH(A32, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A32, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A32, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A32, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A32, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A32, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A32, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A32, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A32, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A32, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A32, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A32, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A32, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A32, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A32, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A32, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A32, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A32, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A32, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A32, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A32, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A32, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A32, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A32, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A32, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A32, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A32, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A32, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A32,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A32,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A32)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A32)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A32)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A32)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A32)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A32)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A32)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A32)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A32)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A32)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A32)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A32)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A32)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A32)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A32)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A32)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A32)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A32)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A32)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A32)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A32)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A32)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A32)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A32)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A32)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A32)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A32)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A32)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A32)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A32)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A32)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A32)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A32)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A32)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A32)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A32)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A32)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A32)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A32)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A32)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A32)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A32)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A32)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A32)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A32)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A32)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A32)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A32)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A32)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A32)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A32)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A32)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A32)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A32)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A32)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A32)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E32" cm="1">
@@ -4723,7 +4676,7 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E33:S33, Cronograma!A2:A30)))</f>
@@ -4734,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <f>SUM(IF(AND(ISERROR(MATCH(A33, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A33, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A33, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A33, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A33, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A33, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A33, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A33, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A33, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A33, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A33, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A33, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A33, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A33, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A33, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A33, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A33, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A33, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A33, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A33, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A33, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A33, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A33, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A33, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A33, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A33, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A33, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A33, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A33,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A33,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A33)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A33)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A33)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A33)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A33)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A33)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A33)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A33)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A33)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A33)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A33)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A33)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A33)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A33)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A33)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A33)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A33)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A33)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A33)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A33)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A33)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A33)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A33)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A33)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A33)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A33)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A33)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A33)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A33)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A33)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A33)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A33)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A33)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A33)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A33)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A33)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A33)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A33)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A33)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A33)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A33)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A33)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A33)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A33)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A33)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A33)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A33)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A33)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A33)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A33)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A33)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A33)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A33)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A33)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A33)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A33)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E33" cm="1">
@@ -4811,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <f>SUM(IF(AND(ISERROR(MATCH(A34, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A34, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A34, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A34, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A34, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A34, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A34, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A34, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A34, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A34, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A34, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A34, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A34, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A34, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A34, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A34, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A34, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A34, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A34, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A34, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A34, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A34, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A34, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A34, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A34, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A34, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A34, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A34, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A34,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A34,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A34)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A34)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A34)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A34)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A34)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A34)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A34)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A34)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A34)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A34)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A34)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A34)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A34)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A34)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A34)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A34)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A34)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A34)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A34)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A34)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A34)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A34)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A34)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A34)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A34)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A34)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A34)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A34)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A34)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A34)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A34)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A34)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A34)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A34)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A34)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A34)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A34)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A34)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A34)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A34)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A34)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A34)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A34)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A34)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A34)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A34)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A34)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A34)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A34)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A34)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A34)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A34)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A34)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A34)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A34)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A34)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E34" cm="1">
@@ -4877,7 +4830,7 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B35">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E35:S35, Cronograma!A2:A30)))</f>
@@ -4888,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <f>SUM(IF(AND(ISERROR(MATCH(A35, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A35, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A35, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A35, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A35, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A35, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A35, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A35, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A35, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A35, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A35, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A35, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A35, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A35, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A35, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A35, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A35, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A35, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A35, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A35, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A35, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A35, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A35, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A35, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A35, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A35, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A35, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A35, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A35,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A35,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A35)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A35)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A35)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A35)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A35)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A35)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A35)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A35)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A35)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A35)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A35)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A35)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A35)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A35)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A35)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A35)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A35)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A35)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A35)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A35)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A35)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A35)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A35)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A35)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A35)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A35)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A35)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A35)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A35)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A35)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A35)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A35)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A35)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A35)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A35)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A35)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A35)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A35)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A35)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A35)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A35)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A35)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A35)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A35)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A35)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A35)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A35)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A35)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A35)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A35)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A35)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A35)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A35)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A35)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A35)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A35)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E35" cm="1">
@@ -4965,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <f>SUM(IF(AND(ISERROR(MATCH(A36, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A36, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A36, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A36, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A36, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A36, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A36, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A36, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A36, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A36, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A36, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A36, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A36, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A36, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A36, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A36, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A36, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A36, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A36, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A36, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A36, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A36, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A36, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A36, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A36, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A36, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A36, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A36, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A36,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A36,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A36)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A36)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A36)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A36)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A36)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A36)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A36)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A36)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A36)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A36)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A36)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A36)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A36)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A36)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A36)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A36)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A36)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A36)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A36)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A36)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A36)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A36)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A36)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A36)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A36)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A36)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A36)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A36)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A36)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A36)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A36)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A36)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A36)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A36)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A36)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A36)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A36)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A36)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A36)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A36)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A36)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A36)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A36)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A36)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A36)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A36)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A36)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A36)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A36)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A36)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A36)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A36)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A36)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A36)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A36)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A36)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E36" cm="1">
@@ -5031,7 +4984,7 @@
     </row>
     <row r="37" spans="1:19">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E37:S37, Cronograma!A2:A30)))</f>
@@ -5042,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <f>SUM(IF(AND(ISERROR(MATCH(A37, Cronograma!C$2:C$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!D$2:D$30,0))=FALSE))), 1, 0),IF(OR(AND(ISERROR(MATCH(A37, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!C$2:C$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!C$2:C$30,0))=TRUE))),AND(ISERROR(MATCH(A37, Cronograma!D$2:D$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!E$2:E$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A37, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!D$2:D$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!D$2:D$30,0))=TRUE))),AND(ISERROR(MATCH(A37, Cronograma!E$2:E$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!F$2:F$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A37, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!E$2:E$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!E$2:E$30,0))=TRUE))),AND(ISERROR(MATCH(A37, Cronograma!F$2:F$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!G$2:G$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A37, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!F$2:F$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!F$2:F$30,0))=TRUE))),AND(ISERROR(MATCH(A37, Cronograma!G$2:G$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!H$2:H$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A37, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!G$2:G$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!G$2:G$30,0))=TRUE))),AND(ISERROR(MATCH(A37, Cronograma!H$2:H$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!I$2:I$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A37, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!H$2:H$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!H$2:H$30,0))=TRUE))),AND(ISERROR(MATCH(A37, Cronograma!I$2:I$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!J$2:J$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A37, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!I$2:I$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!I$2:I$30,0))=TRUE))),AND(ISERROR(MATCH(A37, Cronograma!J$2:J$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!K$2:K$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A37, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!J$2:J$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!J$2:J$30,0))=TRUE))),AND(ISERROR(MATCH(A37, Cronograma!K$2:K$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!L$2:L$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A37, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!K$2:K$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!K$2:K$30,0))=TRUE))),AND(ISERROR(MATCH(A37, Cronograma!L$2:L$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!M$2:M$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A37, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!L$2:L$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!L$2:L$30,0))=TRUE))),AND(ISERROR(MATCH(A37, Cronograma!M$2:M$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!N$2:N$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A37, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!M$2:M$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!M$2:M$30,0))=TRUE))),AND(ISERROR(MATCH(A37, Cronograma!N$2:N$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!O$2:O$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A37, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!N$2:N$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!N$2:N$30,0))=TRUE))),AND(ISERROR(MATCH(A37, Cronograma!O$2:O$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!P$2:P$30,0))=FALSE)))), 1, 0),IF(OR(AND(ISERROR(MATCH(A37, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!O$2:O$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!O$2:O$30,0))=TRUE))),AND(ISERROR(MATCH(A37, Cronograma!P$2:P$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!Q$2:Q$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!Q$2:Q$30,0))=FALSE)))), 1, 0),IF(AND(ISERROR(MATCH(A37, Cronograma!Q$2:Q$30, 0)), NOT(IF(ISERROR(MATCH(A37,Cronograma!P$2:P$30,0)),FALSE,INDEX(Cronograma!$B$2:$B$30,MATCH(A37,Cronograma!P$2:P$30,0))=TRUE))), 1, 0))</f>
+        <f>SUM(((SUMPRODUCT((Cronograma!C$2:C$30=$A37)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A37)*(Cronograma!$B$2:$B$30=FALSE))&gt;0)),(((SUMPRODUCT((Cronograma!D$2:D$30=$A37)*1)=0)*NOT(SUMPRODUCT((Cronograma!C$2:C$30=$A37)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!D$2:D$30=$A37)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A37)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!E$2:E$30=$A37)*1)=0)*NOT(SUMPRODUCT((Cronograma!D$2:D$30=$A37)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!E$2:E$30=$A37)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A37)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!F$2:F$30=$A37)*1)=0)*NOT(SUMPRODUCT((Cronograma!E$2:E$30=$A37)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!F$2:F$30=$A37)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A37)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!G$2:G$30=$A37)*1)=0)*NOT(SUMPRODUCT((Cronograma!F$2:F$30=$A37)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!G$2:G$30=$A37)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A37)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!H$2:H$30=$A37)*1)=0)*NOT(SUMPRODUCT((Cronograma!G$2:G$30=$A37)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!H$2:H$30=$A37)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A37)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!I$2:I$30=$A37)*1)=0)*NOT(SUMPRODUCT((Cronograma!H$2:H$30=$A37)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!I$2:I$30=$A37)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A37)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!J$2:J$30=$A37)*1)=0)*NOT(SUMPRODUCT((Cronograma!I$2:I$30=$A37)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!J$2:J$30=$A37)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A37)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!K$2:K$30=$A37)*1)=0)*NOT(SUMPRODUCT((Cronograma!J$2:J$30=$A37)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!K$2:K$30=$A37)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A37)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!L$2:L$30=$A37)*1)=0)*NOT(SUMPRODUCT((Cronograma!K$2:K$30=$A37)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!L$2:L$30=$A37)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A37)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!M$2:M$30=$A37)*1)=0)*NOT(SUMPRODUCT((Cronograma!L$2:L$30=$A37)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!M$2:M$30=$A37)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A37)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!N$2:N$30=$A37)*1)=0)*NOT(SUMPRODUCT((Cronograma!M$2:M$30=$A37)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!N$2:N$30=$A37)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A37)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!O$2:O$30=$A37)*1)=0)*NOT(SUMPRODUCT((Cronograma!N$2:N$30=$A37)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!O$2:O$30=$A37)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A37)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),(((SUMPRODUCT((Cronograma!P$2:P$30=$A37)*1)=0)*NOT(SUMPRODUCT((Cronograma!O$2:O$30=$A37)*(Cronograma!$B$2:$B$30=TRUE))&gt;0))+((SUMPRODUCT((Cronograma!P$2:P$30=$A37)*1)=0)*NOT(SUMPRODUCT((Cronograma!Q$2:Q$30=$A37)*(Cronograma!$B$2:$B$30=FALSE))&gt;0))&gt;0),((SUMPRODUCT((Cronograma!Q$2:Q$30=$A37)*1)=0)*NOT(SUMPRODUCT((Cronograma!P$2:P$30=$A37)*(Cronograma!$B$2:$B$30=TRUE))&gt;0)))</f>
         <v>0</v>
       </c>
       <c r="E37" cm="1">

--- a/Cronograma-2026-01-01-2026-01-15.xlsx
+++ b/Cronograma-2026-01-01-2026-01-15.xlsx
@@ -37,12 +37,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="86">
   <si>
     <t>Puestos</t>
   </si>
   <si>
     <t>Nocturno</t>
+  </si>
+  <si>
+    <t>01-01-2026</t>
+  </si>
+  <si>
+    <t>02-01-2026</t>
+  </si>
+  <si>
+    <t>03-01-2026</t>
+  </si>
+  <si>
+    <t>04-01-2026</t>
+  </si>
+  <si>
+    <t>05-01-2026</t>
+  </si>
+  <si>
+    <t>06-01-2026</t>
+  </si>
+  <si>
+    <t>07-01-2026</t>
+  </si>
+  <si>
+    <t>08-01-2026</t>
+  </si>
+  <si>
+    <t>09-01-2026</t>
+  </si>
+  <si>
+    <t>10-01-2026</t>
+  </si>
+  <si>
+    <t>11-01-2026</t>
+  </si>
+  <si>
+    <t>12-01-2026</t>
+  </si>
+  <si>
+    <t>13-01-2026</t>
+  </si>
+  <si>
+    <t>14-01-2026</t>
+  </si>
+  <si>
+    <t>15-01-2026</t>
   </si>
   <si>
     <t>D - L1</t>
@@ -256,9 +301,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -311,12 +353,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -334,21 +373,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF66"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0033CC"/>
+          <bgColor rgb="FF83CCEB"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0DBF33"/>
+          <bgColor rgb="FFB5E6A2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -665,1542 +704,1542 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
-        <v>46023</v>
-      </c>
-      <c r="D1" s="2">
-        <v>46024</v>
-      </c>
-      <c r="E1" s="2">
-        <v>46025</v>
-      </c>
-      <c r="F1" s="2">
-        <v>46026</v>
-      </c>
-      <c r="G1" s="2">
-        <v>46027</v>
-      </c>
-      <c r="H1" s="2">
-        <v>46028</v>
-      </c>
-      <c r="I1" s="2">
-        <v>46029</v>
-      </c>
-      <c r="J1" s="2">
-        <v>46030</v>
-      </c>
-      <c r="K1" s="2">
-        <v>46031</v>
-      </c>
-      <c r="L1" s="2">
-        <v>46032</v>
-      </c>
-      <c r="M1" s="2">
-        <v>46033</v>
-      </c>
-      <c r="N1" s="2">
-        <v>46034</v>
-      </c>
-      <c r="O1" s="2">
-        <v>46035</v>
-      </c>
-      <c r="P1" s="2">
-        <v>46036</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>46037</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="O2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M3" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="Q3" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="M4" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="P5" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="Q5" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="M6" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="P6" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="Q6" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="M7" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N7" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="P7" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="Q7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="K8" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="L8" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M8" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="N8" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="O8" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="P8" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="Q8" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="N9" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="Q9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="L10" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="O10" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="Q10" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="L11" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="M11" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="O11" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="P11" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="Q11" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="K12" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="L12" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="M12" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="N12" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="O12" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="P12" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="Q12" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="L13" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="M13" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="N13" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="O13" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="P13" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="Q13" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="L14" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="M14" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="N14" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="P14" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="Q14" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="K15" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="L15" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="M15" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="N15" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="O15" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="P15" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="Q15" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="K16" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="L16" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="M16" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="N16" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="O16" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="P16" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="Q16" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I17" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="J17" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="L17" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M17" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="N17" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="O17" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="P17" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="Q17" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="K18" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="L18" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="M18" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="N18" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="O18" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="P18" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="Q18" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="K19" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="L19" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="M19" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O19" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="P19" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="Q19" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="I20" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="K20" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="L20" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="M20" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="O20" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="P20" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="Q20" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="K21" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="L21" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="M21" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="N21" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="O21" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="P21" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="Q21" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" t="s">
         <v>65</v>
       </c>
-      <c r="G22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" t="s">
-        <v>50</v>
-      </c>
       <c r="J22" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="K22" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="L22" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="M22" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="N22" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="O22" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="P22" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="Q22" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
       </c>
       <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23" t="s">
+        <v>71</v>
+      </c>
+      <c r="M23" t="s">
         <v>52</v>
       </c>
-      <c r="D23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" t="s">
-        <v>52</v>
-      </c>
-      <c r="J23" t="s">
-        <v>56</v>
-      </c>
-      <c r="K23" t="s">
-        <v>56</v>
-      </c>
-      <c r="L23" t="s">
-        <v>56</v>
-      </c>
-      <c r="M23" t="s">
-        <v>37</v>
-      </c>
       <c r="P23" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="Q23" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H24" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="J24" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K24" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="L24" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="M24" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="N24" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="P24" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="Q24" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G25" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="K25" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="L25" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M25" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N25" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="O25" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="Q25" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" t="s">
         <v>65</v>
       </c>
-      <c r="E26" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" t="s">
-        <v>50</v>
-      </c>
       <c r="I26" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="J26" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K26" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="L26" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="M26" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N26" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="O26" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="P26" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="Q26" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B27" t="b">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" t="s">
         <v>66</v>
       </c>
-      <c r="E27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27" t="s">
-        <v>51</v>
-      </c>
       <c r="H27" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="J27" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="K27" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="L27" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="M27" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="N27" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="P27" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="Q27" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="G28" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="K28" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="L28" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="M28" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="O28" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="P28" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="Q28" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B29" t="b">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="I29" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K29" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="M29" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="N29" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="O29" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="P29" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="Q29" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B30" t="b">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E30" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="K30" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="L30" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="M30" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="N30" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="O30" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="P30" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="Q30" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2225,71 +2264,71 @@
     <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="2">
-        <v>46023</v>
-      </c>
-      <c r="F1" s="2">
-        <v>46024</v>
-      </c>
-      <c r="G1" s="2">
-        <v>46025</v>
-      </c>
-      <c r="H1" s="2">
-        <v>46026</v>
-      </c>
-      <c r="I1" s="2">
-        <v>46027</v>
-      </c>
-      <c r="J1" s="2">
-        <v>46028</v>
-      </c>
-      <c r="K1" s="2">
-        <v>46029</v>
-      </c>
-      <c r="L1" s="2">
-        <v>46030</v>
-      </c>
-      <c r="M1" s="2">
-        <v>46031</v>
-      </c>
-      <c r="N1" s="2">
-        <v>46032</v>
-      </c>
-      <c r="O1" s="2">
-        <v>46033</v>
-      </c>
-      <c r="P1" s="2">
-        <v>46034</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>46035</v>
-      </c>
-      <c r="R1" s="2">
-        <v>46036</v>
-      </c>
-      <c r="S1" s="2">
-        <v>46037</v>
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B2">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E2:S2, Cronograma!A2:A30)))</f>
@@ -2366,7 +2405,7 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E3:S3, Cronograma!A2:A30)))</f>
@@ -2443,7 +2482,7 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E4:S4, Cronograma!A2:A30)))</f>
@@ -2520,7 +2559,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B5">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E5:S5, Cronograma!A2:A30)))</f>
@@ -2597,7 +2636,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B6">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E6:S6, Cronograma!A2:A30)))</f>
@@ -2674,7 +2713,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E7:S7, Cronograma!A2:A30)))</f>
@@ -2751,7 +2790,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B8">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E8:S8, Cronograma!A2:A30)))</f>
@@ -2828,7 +2867,7 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B9">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E9:S9, Cronograma!A2:A30)))</f>
@@ -2905,7 +2944,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B10">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E10:S10, Cronograma!A2:A30)))</f>
@@ -2982,7 +3021,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B11">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E11:S11, Cronograma!A2:A30)))</f>
@@ -3059,7 +3098,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B12">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E12:S12, Cronograma!A2:A30)))</f>
@@ -3136,7 +3175,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B13">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E13:S13, Cronograma!A2:A30)))</f>
@@ -3213,7 +3252,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B14">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E14:S14, Cronograma!A2:A30)))</f>
@@ -3290,7 +3329,7 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B15">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E15:S15, Cronograma!A2:A30)))</f>
@@ -3367,7 +3406,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B16">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E16:S16, Cronograma!A2:A30)))</f>
@@ -3444,7 +3483,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B17">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E17:S17, Cronograma!A2:A30)))</f>
@@ -3521,7 +3560,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B18">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E18:S18, Cronograma!A2:A30)))</f>
@@ -3598,7 +3637,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B19">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E19:S19, Cronograma!A2:A30)))</f>
@@ -3675,7 +3714,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B20">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E20:S20, Cronograma!A2:A30)))</f>
@@ -3752,7 +3791,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B21">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E21:S21, Cronograma!A2:A30)))</f>
@@ -3829,7 +3868,7 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B22">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E22:S22, Cronograma!A2:A30)))</f>
@@ -3906,7 +3945,7 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B23">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E23:S23, Cronograma!A2:A30)))</f>
@@ -3983,7 +4022,7 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B24">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E24:S24, Cronograma!A2:A30)))</f>
@@ -4060,7 +4099,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B25">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E25:S25, Cronograma!A2:A30)))</f>
@@ -4137,7 +4176,7 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B26">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E26:S26, Cronograma!A2:A30)))</f>
@@ -4214,7 +4253,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B27">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E27:S27, Cronograma!A2:A30)))</f>
@@ -4291,7 +4330,7 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B28">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E28:S28, Cronograma!A2:A30)))</f>
@@ -4368,7 +4407,7 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B29">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E29:S29, Cronograma!A2:A30)))</f>
@@ -4445,7 +4484,7 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B30">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E30:S30, Cronograma!A2:A30)))</f>
@@ -4522,7 +4561,7 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B31">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E31:S31, Cronograma!A2:A30)))</f>
@@ -4599,7 +4638,7 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B32">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E32:S32, Cronograma!A2:A30)))</f>
@@ -4676,7 +4715,7 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B33">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E33:S33, Cronograma!A2:A30)))</f>
@@ -4753,7 +4792,7 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B34">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E34:S34, Cronograma!A2:A30)))</f>
@@ -4830,7 +4869,7 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E35:S35, Cronograma!A2:A30)))</f>
@@ -4907,7 +4946,7 @@
     </row>
     <row r="36" spans="1:19">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B36">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E36:S36, Cronograma!A2:A30)))</f>
@@ -4984,7 +5023,7 @@
     </row>
     <row r="37" spans="1:19">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B37">
         <f>SUMPRODUCT((Cronograma!B2:B30=FALSE) * (COUNTIF(E37:S37, Cronograma!A2:A30)))</f>
